--- a/CM_DOC_MAP.xlsx
+++ b/CM_DOC_MAP.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\EPMO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VHAHOUWilsoU1\github_desktop\Demo1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{764E530F-5782-4682-9097-C7EC2502F399}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BC18C8F-ADFC-4A53-8465-FC0C519ACDBB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1890" windowWidth="20490" windowHeight="9630" tabRatio="901" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3190" yWindow="750" windowWidth="14400" windowHeight="8930" tabRatio="901" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Explanation Of Doc Folders" sheetId="23" r:id="rId1"/>
@@ -622,7 +622,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2280" uniqueCount="721">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2280" uniqueCount="722">
   <si>
     <t xml:space="preserve">Software Architecture Document </t>
   </si>
@@ -2857,6 +2857,9 @@
   </si>
   <si>
     <t>Budget Baseline, Risk Management Plan, Exported Sprint Plans, Exported Build Plans, Reports</t>
+  </si>
+  <si>
+    <t>Assess Report</t>
   </si>
 </sst>
 </file>
@@ -3453,21 +3456,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" style="6" customWidth="1"/>
-    <col min="2" max="2" width="33.85546875" style="6" customWidth="1"/>
-    <col min="3" max="3" width="112.140625" style="10" customWidth="1"/>
-    <col min="4" max="4" width="49.5703125" style="6" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="6"/>
+    <col min="1" max="1" width="15.7265625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="33.81640625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="112.1796875" style="10" customWidth="1"/>
+    <col min="4" max="4" width="49.54296875" style="6" customWidth="1"/>
+    <col min="5" max="16384" width="9.1796875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="13" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>301</v>
       </c>
@@ -3481,7 +3484,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="106.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="106.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>463</v>
       </c>
@@ -3495,7 +3498,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="114.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="112.5" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>462</v>
       </c>
@@ -3509,7 +3512,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="240" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="240" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>457</v>
       </c>
@@ -3523,7 +3526,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" ht="50" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>464</v>
       </c>
@@ -3537,7 +3540,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" ht="25" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>469</v>
       </c>
@@ -3551,7 +3554,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" ht="62.5" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>465</v>
       </c>
@@ -3565,7 +3568,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" ht="25" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>466</v>
       </c>
@@ -3579,7 +3582,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>309</v>
       </c>
@@ -3593,7 +3596,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>467</v>
       </c>
@@ -3607,7 +3610,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="11" spans="1:4" s="75" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" s="75" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A11" s="76" t="s">
         <v>491</v>
       </c>
@@ -3621,7 +3624,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" ht="50" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>312</v>
       </c>
@@ -3635,7 +3638,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" ht="25" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>468</v>
       </c>
@@ -3669,18 +3672,18 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="69" style="79" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="1"/>
-    <col min="4" max="8" width="10.28515625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.85546875" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="2" width="10.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.1796875" style="1"/>
+    <col min="4" max="8" width="10.26953125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.81640625" customWidth="1"/>
+    <col min="11" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="79" t="s">
         <v>42</v>
       </c>
@@ -3709,7 +3712,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="80" t="s">
         <v>494</v>
       </c>
@@ -3726,7 +3729,7 @@
       <c r="H2" s="12"/>
       <c r="I2" s="12"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="80" t="s">
         <v>496</v>
       </c>
@@ -3743,7 +3746,7 @@
       <c r="H3" s="12"/>
       <c r="I3" s="12"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="80" t="s">
         <v>498</v>
       </c>
@@ -3758,7 +3761,7 @@
       <c r="H4" s="13"/>
       <c r="I4" s="13"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="80" t="s">
         <v>501</v>
       </c>
@@ -3773,7 +3776,7 @@
       <c r="H5" s="13"/>
       <c r="I5" s="13"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="80" t="s">
         <v>502</v>
       </c>
@@ -3788,7 +3791,7 @@
       <c r="H6" s="13"/>
       <c r="I6" s="13"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="80" t="s">
         <v>503</v>
       </c>
@@ -3803,7 +3806,7 @@
       <c r="H7" s="13"/>
       <c r="I7" s="13"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="80" t="s">
         <v>504</v>
       </c>
@@ -3818,7 +3821,7 @@
       <c r="H8" s="13"/>
       <c r="I8" s="13"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="80" t="s">
         <v>506</v>
       </c>
@@ -3833,7 +3836,7 @@
       <c r="H9" s="13"/>
       <c r="I9" s="13"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="80" t="s">
         <v>509</v>
       </c>
@@ -3848,7 +3851,7 @@
       <c r="H10" s="13"/>
       <c r="I10" s="13"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="80" t="s">
         <v>510</v>
       </c>
@@ -3863,7 +3866,7 @@
       <c r="H11" s="13"/>
       <c r="I11" s="13"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="80" t="s">
         <v>513</v>
       </c>
@@ -3878,7 +3881,7 @@
       <c r="H12" s="13"/>
       <c r="I12" s="13"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="80" t="s">
         <v>515</v>
       </c>
@@ -3893,7 +3896,7 @@
       <c r="H13" s="13"/>
       <c r="I13" s="13"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="80" t="s">
         <v>517</v>
       </c>
@@ -3908,7 +3911,7 @@
       <c r="H14" s="13"/>
       <c r="I14" s="13"/>
     </row>
-    <row r="15" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" ht="25" x14ac:dyDescent="0.25">
       <c r="A15" s="80" t="s">
         <v>518</v>
       </c>
@@ -3923,7 +3926,7 @@
       <c r="H15" s="13"/>
       <c r="I15" s="13"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="80" t="s">
         <v>519</v>
       </c>
@@ -3938,7 +3941,7 @@
       <c r="H16" s="73"/>
       <c r="I16" s="73"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="80" t="s">
         <v>520</v>
       </c>
@@ -3953,7 +3956,7 @@
       <c r="H17" s="13"/>
       <c r="I17" s="13"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="80" t="s">
         <v>521</v>
       </c>
@@ -3968,7 +3971,7 @@
       <c r="H18" s="13"/>
       <c r="I18" s="13"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="80" t="s">
         <v>522</v>
       </c>
@@ -3983,7 +3986,7 @@
       <c r="H19" s="13"/>
       <c r="I19" s="13"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="80" t="s">
         <v>523</v>
       </c>
@@ -3998,7 +4001,7 @@
       <c r="H20" s="13"/>
       <c r="I20" s="13"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="80" t="s">
         <v>525</v>
       </c>
@@ -4013,7 +4016,7 @@
       <c r="H21" s="13"/>
       <c r="I21" s="13"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="80" t="s">
         <v>526</v>
       </c>
@@ -4028,7 +4031,7 @@
       <c r="H22" s="13"/>
       <c r="I22" s="13"/>
     </row>
-    <row r="23" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" ht="25" x14ac:dyDescent="0.25">
       <c r="A23" s="80" t="s">
         <v>527</v>
       </c>
@@ -4043,7 +4046,7 @@
       <c r="H23" s="13"/>
       <c r="I23" s="13"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="80" t="s">
         <v>528</v>
       </c>
@@ -4058,7 +4061,7 @@
       <c r="H24" s="13"/>
       <c r="I24" s="13"/>
     </row>
-    <row r="25" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" ht="25" x14ac:dyDescent="0.25">
       <c r="A25" s="80" t="s">
         <v>529</v>
       </c>
@@ -4073,7 +4076,7 @@
       <c r="H25" s="13"/>
       <c r="I25" s="13"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="80" t="s">
         <v>530</v>
       </c>
@@ -4088,7 +4091,7 @@
       <c r="H26" s="13"/>
       <c r="I26" s="13"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="80" t="s">
         <v>642</v>
       </c>
@@ -4103,7 +4106,7 @@
       <c r="H27" s="13"/>
       <c r="I27" s="13"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="80" t="s">
         <v>647</v>
       </c>
@@ -4120,7 +4123,7 @@
       <c r="H28" s="13"/>
       <c r="I28" s="13"/>
     </row>
-    <row r="29" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" ht="25" x14ac:dyDescent="0.25">
       <c r="A29" s="80" t="s">
         <v>535</v>
       </c>
@@ -4135,7 +4138,7 @@
       <c r="H29" s="13"/>
       <c r="I29" s="13"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="80" t="s">
         <v>536</v>
       </c>
@@ -4150,7 +4153,7 @@
       <c r="H30" s="13"/>
       <c r="I30" s="13"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="80" t="s">
         <v>537</v>
       </c>
@@ -4165,7 +4168,7 @@
       <c r="H31" s="13"/>
       <c r="I31" s="13"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="80" t="s">
         <v>538</v>
       </c>
@@ -4180,7 +4183,7 @@
       <c r="H32" s="13"/>
       <c r="I32" s="13"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="80" t="s">
         <v>539</v>
       </c>
@@ -4195,7 +4198,7 @@
       <c r="H33" s="73"/>
       <c r="I33" s="73"/>
     </row>
-    <row r="34" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" ht="25" x14ac:dyDescent="0.25">
       <c r="A34" s="80" t="s">
         <v>540</v>
       </c>
@@ -4208,7 +4211,7 @@
       <c r="H34" s="73"/>
       <c r="I34" s="73"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="80" t="s">
         <v>541</v>
       </c>
@@ -4223,7 +4226,7 @@
       <c r="H35" s="13"/>
       <c r="I35" s="13"/>
     </row>
-    <row r="36" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="80" t="s">
         <v>542</v>
       </c>
@@ -4238,7 +4241,7 @@
       <c r="H36" s="13"/>
       <c r="I36" s="13"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="80" t="s">
         <v>543</v>
       </c>
@@ -4253,7 +4256,7 @@
       <c r="H37" s="13"/>
       <c r="I37" s="13"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="80" t="s">
         <v>702</v>
       </c>
@@ -4268,7 +4271,7 @@
       <c r="H38" s="12"/>
       <c r="I38" s="12"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="80" t="s">
         <v>544</v>
       </c>
@@ -4283,7 +4286,7 @@
       <c r="H39" s="13"/>
       <c r="I39" s="13"/>
     </row>
-    <row r="40" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" ht="25" x14ac:dyDescent="0.25">
       <c r="A40" s="80" t="s">
         <v>546</v>
       </c>
@@ -4298,7 +4301,7 @@
       <c r="H40" s="13"/>
       <c r="I40" s="13"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="80" t="s">
         <v>547</v>
       </c>
@@ -4313,7 +4316,7 @@
       <c r="H41" s="13"/>
       <c r="I41" s="13"/>
     </row>
-    <row r="42" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" ht="25" x14ac:dyDescent="0.25">
       <c r="A42" s="80" t="s">
         <v>548</v>
       </c>
@@ -4328,7 +4331,7 @@
       <c r="H42" s="13"/>
       <c r="I42" s="13"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="80" t="s">
         <v>550</v>
       </c>
@@ -4343,7 +4346,7 @@
       <c r="H43" s="13"/>
       <c r="I43" s="13"/>
     </row>
-    <row r="44" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9" ht="25" x14ac:dyDescent="0.25">
       <c r="A44" s="80" t="s">
         <v>551</v>
       </c>
@@ -4358,7 +4361,7 @@
       <c r="H44" s="73"/>
       <c r="I44" s="73"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="80" t="s">
         <v>556</v>
       </c>
@@ -4373,7 +4376,7 @@
       <c r="H45" s="13"/>
       <c r="I45" s="13"/>
     </row>
-    <row r="46" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" ht="25" x14ac:dyDescent="0.25">
       <c r="A46" s="80" t="s">
         <v>560</v>
       </c>
@@ -4388,7 +4391,7 @@
       <c r="H46" s="13"/>
       <c r="I46" s="13"/>
     </row>
-    <row r="47" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9" ht="25" x14ac:dyDescent="0.25">
       <c r="A47" s="80" t="s">
         <v>561</v>
       </c>
@@ -4403,7 +4406,7 @@
       <c r="H47" s="13"/>
       <c r="I47" s="13"/>
     </row>
-    <row r="48" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9" ht="25" x14ac:dyDescent="0.25">
       <c r="A48" s="80" t="s">
         <v>562</v>
       </c>
@@ -4418,7 +4421,7 @@
       <c r="H48" s="13"/>
       <c r="I48" s="13"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="80" t="s">
         <v>563</v>
       </c>
@@ -4433,7 +4436,7 @@
       <c r="H49" s="13"/>
       <c r="I49" s="13"/>
     </row>
-    <row r="50" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9" ht="25" x14ac:dyDescent="0.25">
       <c r="A50" s="80" t="s">
         <v>568</v>
       </c>
@@ -4448,7 +4451,7 @@
       <c r="H50" s="13"/>
       <c r="I50" s="13"/>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="80" t="s">
         <v>569</v>
       </c>
@@ -4463,7 +4466,7 @@
       <c r="H51" s="13"/>
       <c r="I51" s="13"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="80" t="s">
         <v>574</v>
       </c>
@@ -4478,7 +4481,7 @@
       <c r="H52" s="13"/>
       <c r="I52" s="13"/>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="80" t="s">
         <v>690</v>
       </c>
@@ -4493,7 +4496,7 @@
       <c r="H53" s="13"/>
       <c r="I53" s="13"/>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="80" t="s">
         <v>691</v>
       </c>
@@ -4508,7 +4511,7 @@
       <c r="H54" s="13"/>
       <c r="I54" s="13"/>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="80" t="s">
         <v>578</v>
       </c>
@@ -4523,7 +4526,7 @@
       <c r="H55" s="13"/>
       <c r="I55" s="13"/>
     </row>
-    <row r="56" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9" ht="25" x14ac:dyDescent="0.25">
       <c r="A56" s="80" t="s">
         <v>580</v>
       </c>
@@ -4538,7 +4541,7 @@
       <c r="H56" s="13"/>
       <c r="I56" s="13"/>
     </row>
-    <row r="57" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9" ht="25" x14ac:dyDescent="0.25">
       <c r="A57" s="80" t="s">
         <v>582</v>
       </c>
@@ -4553,7 +4556,7 @@
       <c r="H57" s="13"/>
       <c r="I57" s="13"/>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="80" t="s">
         <v>583</v>
       </c>
@@ -4568,7 +4571,7 @@
       <c r="H58" s="13"/>
       <c r="I58" s="13"/>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="80" t="s">
         <v>584</v>
       </c>
@@ -4583,7 +4586,7 @@
       <c r="H59" s="13"/>
       <c r="I59" s="13"/>
     </row>
-    <row r="60" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:9" ht="25" x14ac:dyDescent="0.25">
       <c r="A60" s="80" t="s">
         <v>588</v>
       </c>
@@ -4598,7 +4601,7 @@
       <c r="H60" s="13"/>
       <c r="I60" s="13"/>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="80" t="s">
         <v>589</v>
       </c>
@@ -4613,7 +4616,7 @@
       <c r="H61" s="13"/>
       <c r="I61" s="13"/>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="80" t="s">
         <v>591</v>
       </c>
@@ -4628,7 +4631,7 @@
       <c r="H62" s="13"/>
       <c r="I62" s="13"/>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="80" t="s">
         <v>592</v>
       </c>
@@ -4643,7 +4646,7 @@
       <c r="H63" s="13"/>
       <c r="I63" s="13"/>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="80" t="s">
         <v>593</v>
       </c>
@@ -4658,7 +4661,7 @@
       <c r="H64" s="13"/>
       <c r="I64" s="13"/>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="80" t="s">
         <v>595</v>
       </c>
@@ -4673,7 +4676,7 @@
       <c r="H65" s="13"/>
       <c r="I65" s="13"/>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="80" t="s">
         <v>596</v>
       </c>
@@ -4688,7 +4691,7 @@
       <c r="H66" s="13"/>
       <c r="I66" s="13"/>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="80" t="s">
         <v>598</v>
       </c>
@@ -4703,7 +4706,7 @@
       <c r="H67" s="13"/>
       <c r="I67" s="13"/>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="80" t="s">
         <v>617</v>
       </c>
@@ -4737,18 +4740,18 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="69" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="1"/>
-    <col min="4" max="8" width="10.28515625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.85546875" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="2" width="10.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.1796875" style="1"/>
+    <col min="4" max="8" width="10.26953125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.81640625" customWidth="1"/>
+    <col min="11" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>42</v>
       </c>
@@ -4795,18 +4798,18 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="69" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="1"/>
-    <col min="4" max="8" width="10.28515625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.85546875" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="2" width="10.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.1796875" style="1"/>
+    <col min="4" max="8" width="10.26953125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.81640625" customWidth="1"/>
+    <col min="11" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>42</v>
       </c>
@@ -4835,7 +4838,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="74" t="s">
         <v>37</v>
       </c>
@@ -4848,7 +4851,7 @@
       <c r="H2" s="13"/>
       <c r="I2" s="13"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="74" t="s">
         <v>609</v>
       </c>
@@ -4863,7 +4866,7 @@
       <c r="H3" s="13"/>
       <c r="I3" s="13"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="74" t="s">
         <v>666</v>
       </c>
@@ -4878,7 +4881,7 @@
       <c r="H4" s="13"/>
       <c r="I4" s="13"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="74" t="s">
         <v>579</v>
       </c>
@@ -4893,7 +4896,7 @@
       <c r="H5" s="13"/>
       <c r="I5" s="13"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="74" t="s">
         <v>93</v>
       </c>
@@ -4908,7 +4911,7 @@
       <c r="H6" s="13"/>
       <c r="I6" s="13"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="74" t="s">
         <v>60</v>
       </c>
@@ -4939,18 +4942,18 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="69" style="79" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="1"/>
-    <col min="4" max="8" width="10.28515625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.85546875" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="2" width="10.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.1796875" style="1"/>
+    <col min="4" max="8" width="10.26953125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.81640625" customWidth="1"/>
+    <col min="11" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="79" t="s">
         <v>42</v>
       </c>
@@ -4979,7 +4982,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="80" t="s">
         <v>476</v>
       </c>
@@ -4994,7 +4997,7 @@
       <c r="H2" s="12"/>
       <c r="I2" s="12"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="80" t="s">
         <v>499</v>
       </c>
@@ -5009,7 +5012,7 @@
       <c r="H3" s="13"/>
       <c r="I3" s="13"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="80" t="s">
         <v>603</v>
       </c>
@@ -5024,7 +5027,7 @@
       <c r="H4" s="13"/>
       <c r="I4" s="13"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="80" t="s">
         <v>604</v>
       </c>
@@ -5039,7 +5042,7 @@
       <c r="H5" s="13"/>
       <c r="I5" s="13"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="80" t="s">
         <v>511</v>
       </c>
@@ -5054,7 +5057,7 @@
       <c r="H6" s="13"/>
       <c r="I6" s="13"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="80" t="s">
         <v>524</v>
       </c>
@@ -5069,7 +5072,7 @@
       <c r="H7" s="13"/>
       <c r="I7" s="13"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="80" t="s">
         <v>613</v>
       </c>
@@ -5084,7 +5087,7 @@
       <c r="H8" s="13"/>
       <c r="I8" s="13"/>
     </row>
-    <row r="9" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" ht="25" x14ac:dyDescent="0.25">
       <c r="A9" s="80" t="s">
         <v>532</v>
       </c>
@@ -5099,7 +5102,7 @@
       <c r="H9" s="13"/>
       <c r="I9" s="13"/>
     </row>
-    <row r="10" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" ht="25" x14ac:dyDescent="0.25">
       <c r="A10" s="80" t="s">
         <v>533</v>
       </c>
@@ -5114,7 +5117,7 @@
       <c r="H10" s="13"/>
       <c r="I10" s="13"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="80" t="s">
         <v>646</v>
       </c>
@@ -5129,7 +5132,7 @@
       <c r="H11" s="13"/>
       <c r="I11" s="13"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="80" t="s">
         <v>652</v>
       </c>
@@ -5144,7 +5147,7 @@
       <c r="H12" s="13"/>
       <c r="I12" s="13"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="80" t="s">
         <v>671</v>
       </c>
@@ -5159,7 +5162,7 @@
       <c r="H13" s="13"/>
       <c r="I13" s="13"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="80" t="s">
         <v>570</v>
       </c>
@@ -5174,7 +5177,7 @@
       <c r="H14" s="13"/>
       <c r="I14" s="13"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="80" t="s">
         <v>622</v>
       </c>
@@ -5209,18 +5212,18 @@
       <selection pane="bottomRight" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="69" style="1" customWidth="1"/>
-    <col min="2" max="2" width="21.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="1"/>
-    <col min="4" max="8" width="10.28515625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.85546875" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="2" width="21.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.1796875" style="1"/>
+    <col min="4" max="8" width="10.26953125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.81640625" customWidth="1"/>
+    <col min="11" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>42</v>
       </c>
@@ -5249,7 +5252,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="74" t="s">
         <v>62</v>
       </c>
@@ -5276,18 +5279,18 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="69" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="1"/>
-    <col min="4" max="8" width="10.28515625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.85546875" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="2" width="10.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.1796875" style="1"/>
+    <col min="4" max="8" width="10.26953125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.81640625" customWidth="1"/>
+    <col min="11" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>42</v>
       </c>
@@ -5316,7 +5319,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="74" t="s">
         <v>114</v>
       </c>
@@ -5331,7 +5334,7 @@
       <c r="H2" s="13"/>
       <c r="I2" s="13"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="74" t="s">
         <v>714</v>
       </c>
@@ -5342,7 +5345,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="74" t="s">
         <v>73</v>
       </c>
@@ -5355,7 +5358,7 @@
       <c r="H4" s="13"/>
       <c r="I4" s="13"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="74" t="s">
         <v>610</v>
       </c>
@@ -5370,7 +5373,7 @@
       <c r="H5" s="13"/>
       <c r="I5" s="13"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="74" t="s">
         <v>534</v>
       </c>
@@ -5383,7 +5386,7 @@
       <c r="H6" s="13"/>
       <c r="I6" s="13"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="74" t="s">
         <v>649</v>
       </c>
@@ -5398,7 +5401,7 @@
       <c r="H7" s="13"/>
       <c r="I7" s="13"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="74" t="s">
         <v>650</v>
       </c>
@@ -5413,7 +5416,7 @@
       <c r="H8" s="13"/>
       <c r="I8" s="13"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="74" t="s">
         <v>201</v>
       </c>
@@ -5428,7 +5431,7 @@
       <c r="H9" s="13"/>
       <c r="I9" s="13"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="74" t="s">
         <v>659</v>
       </c>
@@ -5443,7 +5446,7 @@
       <c r="H10" s="13"/>
       <c r="I10" s="13"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="74" t="s">
         <v>389</v>
       </c>
@@ -5458,7 +5461,7 @@
       <c r="H11" s="73"/>
       <c r="I11" s="73"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="74" t="s">
         <v>567</v>
       </c>
@@ -5473,7 +5476,7 @@
       <c r="H12" s="13"/>
       <c r="I12" s="13"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="74" t="s">
         <v>698</v>
       </c>
@@ -5488,7 +5491,7 @@
       <c r="H13" s="13"/>
       <c r="I13" s="13"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="74" t="s">
         <v>577</v>
       </c>
@@ -5503,7 +5506,7 @@
       <c r="H14" s="13"/>
       <c r="I14" s="13"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="74" t="s">
         <v>637</v>
       </c>
@@ -5518,7 +5521,7 @@
       <c r="H15" s="13"/>
       <c r="I15" s="13"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="74" t="s">
         <v>487</v>
       </c>
@@ -5533,7 +5536,7 @@
       <c r="H16" s="13"/>
       <c r="I16" s="13"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="74" t="s">
         <v>585</v>
       </c>
@@ -5548,7 +5551,7 @@
       <c r="H17" s="13"/>
       <c r="I17" s="13"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="74" t="s">
         <v>488</v>
       </c>
@@ -5563,7 +5566,7 @@
       <c r="H18" s="13"/>
       <c r="I18" s="13"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="74" t="s">
         <v>626</v>
       </c>
@@ -5578,7 +5581,7 @@
       <c r="H19" s="13"/>
       <c r="I19" s="13"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="74" t="s">
         <v>185</v>
       </c>
@@ -5609,17 +5612,17 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="69" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="1"/>
-    <col min="4" max="8" width="10.28515625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="2" width="10.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.1796875" style="1"/>
+    <col min="4" max="8" width="10.26953125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>42</v>
       </c>
@@ -5648,17 +5651,17 @@
         <v>475</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>321</v>
       </c>
@@ -5677,12 +5680,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="41" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="11"/>
     </row>
   </sheetData>
@@ -5699,13 +5702,13 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.140625" customWidth="1"/>
+    <col min="1" max="1" width="17.1796875" customWidth="1"/>
     <col min="2" max="2" width="106" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>319</v>
       </c>
@@ -5713,7 +5716,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>465</v>
       </c>
@@ -5721,7 +5724,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
         <v>465</v>
       </c>
@@ -5729,7 +5732,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>465</v>
       </c>
@@ -5737,7 +5740,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
         <v>462</v>
       </c>
@@ -5745,7 +5748,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
         <v>461</v>
       </c>
@@ -5753,7 +5756,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
         <v>467</v>
       </c>
@@ -5761,7 +5764,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
         <v>463</v>
       </c>
@@ -5769,7 +5772,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
         <v>465</v>
       </c>
@@ -5777,7 +5780,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
         <v>465</v>
       </c>
@@ -5785,7 +5788,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="18" t="s">
         <v>462</v>
       </c>
@@ -5793,7 +5796,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="18" t="s">
         <v>462</v>
       </c>
@@ -5801,7 +5804,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="18" t="s">
         <v>462</v>
       </c>
@@ -5809,7 +5812,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="19" t="s">
         <v>465</v>
       </c>
@@ -5817,7 +5820,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="19" t="s">
         <v>465</v>
       </c>
@@ -5825,7 +5828,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="19" t="s">
         <v>465</v>
       </c>
@@ -5833,7 +5836,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="19" t="s">
         <v>462</v>
       </c>
@@ -5841,7 +5844,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="19" t="s">
         <v>462</v>
       </c>
@@ -5849,7 +5852,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="19" t="s">
         <v>462</v>
       </c>
@@ -5857,7 +5860,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="19" t="s">
         <v>462</v>
       </c>
@@ -5865,7 +5868,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="19" t="s">
         <v>462</v>
       </c>
@@ -5873,7 +5876,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="19" t="s">
         <v>462</v>
       </c>
@@ -5881,7 +5884,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="20" t="s">
         <v>462</v>
       </c>
@@ -5889,7 +5892,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="20" t="s">
         <v>462</v>
       </c>
@@ -5897,7 +5900,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="20" t="s">
         <v>462</v>
       </c>
@@ -5905,7 +5908,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="20" t="s">
         <v>462</v>
       </c>
@@ -5913,7 +5916,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="20" t="s">
         <v>462</v>
       </c>
@@ -5921,7 +5924,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="21" t="s">
         <v>465</v>
       </c>
@@ -5929,7 +5932,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="21" t="s">
         <v>461</v>
       </c>
@@ -5937,7 +5940,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="21" t="s">
         <v>465</v>
       </c>
@@ -5945,7 +5948,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="22" t="s">
         <v>465</v>
       </c>
@@ -5953,7 +5956,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="22" t="s">
         <v>462</v>
       </c>
@@ -5961,7 +5964,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="22" t="s">
         <v>462</v>
       </c>
@@ -5969,7 +5972,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="22" t="s">
         <v>465</v>
       </c>
@@ -5977,7 +5980,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="22" t="s">
         <v>465</v>
       </c>
@@ -5985,7 +5988,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="22" t="s">
         <v>465</v>
       </c>
@@ -5993,7 +5996,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="22" t="s">
         <v>465</v>
       </c>
@@ -6001,7 +6004,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="22" t="s">
         <v>462</v>
       </c>
@@ -6009,7 +6012,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="22" t="s">
         <v>462</v>
       </c>
@@ -6017,7 +6020,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="23" t="s">
         <v>462</v>
       </c>
@@ -6025,7 +6028,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="23" t="s">
         <v>462</v>
       </c>
@@ -6033,7 +6036,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="23" t="s">
         <v>467</v>
       </c>
@@ -6041,7 +6044,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="24" t="s">
         <v>465</v>
       </c>
@@ -6049,7 +6052,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="25" t="s">
         <v>463</v>
       </c>
@@ -6057,7 +6060,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="25" t="s">
         <v>463</v>
       </c>
@@ -6065,7 +6068,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="25" t="s">
         <v>463</v>
       </c>
@@ -6073,7 +6076,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="25" t="s">
         <v>465</v>
       </c>
@@ -6081,7 +6084,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="25" t="s">
         <v>465</v>
       </c>
@@ -6089,7 +6092,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="25" t="s">
         <v>465</v>
       </c>
@@ -6097,7 +6100,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="25" t="s">
         <v>465</v>
       </c>
@@ -6105,7 +6108,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="25" t="s">
         <v>465</v>
       </c>
@@ -6113,7 +6116,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="25" t="s">
         <v>465</v>
       </c>
@@ -6121,7 +6124,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="25" t="s">
         <v>462</v>
       </c>
@@ -6129,7 +6132,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="26" t="s">
         <v>465</v>
       </c>
@@ -6137,7 +6140,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="26" t="s">
         <v>465</v>
       </c>
@@ -6145,7 +6148,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="26" t="s">
         <v>465</v>
       </c>
@@ -6153,7 +6156,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="26" t="s">
         <v>312</v>
       </c>
@@ -6161,7 +6164,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="26" t="s">
         <v>312</v>
       </c>
@@ -6169,7 +6172,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="26" t="s">
         <v>312</v>
       </c>
@@ -6177,7 +6180,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="26" t="s">
         <v>465</v>
       </c>
@@ -6185,7 +6188,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="26" t="s">
         <v>465</v>
       </c>
@@ -6193,7 +6196,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="26" t="s">
         <v>462</v>
       </c>
@@ -6201,7 +6204,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="26" t="s">
         <v>462</v>
       </c>
@@ -6209,7 +6212,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="27" t="s">
         <v>462</v>
       </c>
@@ -6217,7 +6220,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="28" t="s">
         <v>465</v>
       </c>
@@ -6225,7 +6228,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="28" t="s">
         <v>312</v>
       </c>
@@ -6233,7 +6236,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="28" t="s">
         <v>312</v>
       </c>
@@ -6241,7 +6244,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="28" t="s">
         <v>462</v>
       </c>
@@ -6249,7 +6252,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="28" t="s">
         <v>465</v>
       </c>
@@ -6257,7 +6260,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="28" t="s">
         <v>465</v>
       </c>
@@ -6265,7 +6268,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="28" t="s">
         <v>465</v>
       </c>
@@ -6273,7 +6276,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="28" t="s">
         <v>465</v>
       </c>
@@ -6281,7 +6284,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="28" t="s">
         <v>465</v>
       </c>
@@ -6289,7 +6292,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="28" t="s">
         <v>465</v>
       </c>
@@ -6297,7 +6300,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="28" t="s">
         <v>465</v>
       </c>
@@ -6305,7 +6308,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="28" t="s">
         <v>465</v>
       </c>
@@ -6313,7 +6316,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="29" t="s">
         <v>462</v>
       </c>
@@ -6321,7 +6324,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="29" t="s">
         <v>462</v>
       </c>
@@ -6329,7 +6332,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="29" t="s">
         <v>462</v>
       </c>
@@ -6337,7 +6340,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="29" t="s">
         <v>465</v>
       </c>
@@ -6345,7 +6348,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="29" t="s">
         <v>468</v>
       </c>
@@ -6353,7 +6356,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="29" t="s">
         <v>465</v>
       </c>
@@ -6361,7 +6364,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="29" t="s">
         <v>465</v>
       </c>
@@ -6369,7 +6372,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="29" t="s">
         <v>465</v>
       </c>
@@ -6377,7 +6380,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="29" t="s">
         <v>462</v>
       </c>
@@ -6385,7 +6388,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="29" t="s">
         <v>462</v>
       </c>
@@ -6393,7 +6396,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="29" t="s">
         <v>462</v>
       </c>
@@ -6401,7 +6404,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="29" t="s">
         <v>462</v>
       </c>
@@ -6409,7 +6412,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="29" t="s">
         <v>462</v>
       </c>
@@ -6417,7 +6420,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="29" t="s">
         <v>462</v>
       </c>
@@ -6425,7 +6428,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="29" t="s">
         <v>462</v>
       </c>
@@ -6433,7 +6436,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="29" t="s">
         <v>461</v>
       </c>
@@ -6441,7 +6444,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="29" t="s">
         <v>463</v>
       </c>
@@ -6449,7 +6452,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="29" t="s">
         <v>461</v>
       </c>
@@ -6457,7 +6460,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="29" t="s">
         <v>461</v>
       </c>
@@ -6465,7 +6468,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="29" t="s">
         <v>461</v>
       </c>
@@ -6473,7 +6476,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="29" t="s">
         <v>462</v>
       </c>
@@ -6481,7 +6484,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="29" t="s">
         <v>461</v>
       </c>
@@ -6489,7 +6492,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="30" t="s">
         <v>312</v>
       </c>
@@ -6497,7 +6500,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="31" t="s">
         <v>467</v>
       </c>
@@ -6505,7 +6508,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="31" t="s">
         <v>467</v>
       </c>
@@ -6513,7 +6516,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="31" t="s">
         <v>461</v>
       </c>
@@ -6521,7 +6524,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="31" t="s">
         <v>465</v>
       </c>
@@ -6529,7 +6532,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="31" t="s">
         <v>465</v>
       </c>
@@ -6537,7 +6540,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" s="31" t="s">
         <v>465</v>
       </c>
@@ -6545,7 +6548,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="31" t="s">
         <v>462</v>
       </c>
@@ -6553,7 +6556,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" s="31" t="s">
         <v>465</v>
       </c>
@@ -6561,7 +6564,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" s="31" t="s">
         <v>312</v>
       </c>
@@ -6569,7 +6572,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="31" t="s">
         <v>312</v>
       </c>
@@ -6577,7 +6580,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="31" t="s">
         <v>465</v>
       </c>
@@ -6585,7 +6588,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" s="31" t="s">
         <v>312</v>
       </c>
@@ -6593,7 +6596,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" s="31" t="s">
         <v>461</v>
       </c>
@@ -6601,7 +6604,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" s="31" t="s">
         <v>465</v>
       </c>
@@ -6609,7 +6612,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" s="31" t="s">
         <v>467</v>
       </c>
@@ -6617,7 +6620,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" s="31" t="s">
         <v>312</v>
       </c>
@@ -6625,7 +6628,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" s="31" t="s">
         <v>312</v>
       </c>
@@ -6633,7 +6636,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" s="31" t="s">
         <v>312</v>
       </c>
@@ -6641,7 +6644,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" s="32" t="s">
         <v>465</v>
       </c>
@@ -6649,7 +6652,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" s="32" t="s">
         <v>469</v>
       </c>
@@ -6657,7 +6660,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" s="32" t="s">
         <v>465</v>
       </c>
@@ -6665,7 +6668,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" s="32" t="s">
         <v>465</v>
       </c>
@@ -6673,7 +6676,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" s="32" t="s">
         <v>465</v>
       </c>
@@ -6681,7 +6684,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" s="32" t="s">
         <v>465</v>
       </c>
@@ -6689,7 +6692,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" s="32" t="s">
         <v>465</v>
       </c>
@@ -6697,7 +6700,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" s="32" t="s">
         <v>465</v>
       </c>
@@ -6705,7 +6708,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" s="32" t="s">
         <v>465</v>
       </c>
@@ -6713,7 +6716,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" s="32" t="s">
         <v>465</v>
       </c>
@@ -6721,7 +6724,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" s="32" t="s">
         <v>465</v>
       </c>
@@ -6729,7 +6732,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" s="32" t="s">
         <v>462</v>
       </c>
@@ -6737,7 +6740,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" s="32" t="s">
         <v>465</v>
       </c>
@@ -6745,7 +6748,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" s="32" t="s">
         <v>465</v>
       </c>
@@ -6753,7 +6756,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" s="32" t="s">
         <v>465</v>
       </c>
@@ -6761,7 +6764,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" s="32" t="s">
         <v>467</v>
       </c>
@@ -6769,7 +6772,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" s="32" t="s">
         <v>462</v>
       </c>
@@ -6777,7 +6780,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" s="32" t="s">
         <v>462</v>
       </c>
@@ -6785,7 +6788,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" s="32" t="s">
         <v>462</v>
       </c>
@@ -6793,7 +6796,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" s="32" t="s">
         <v>462</v>
       </c>
@@ -6801,7 +6804,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" s="32" t="s">
         <v>462</v>
       </c>
@@ -6809,7 +6812,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" s="33" t="s">
         <v>312</v>
       </c>
@@ -6817,7 +6820,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" s="34" t="s">
         <v>463</v>
       </c>
@@ -6825,7 +6828,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" s="34" t="s">
         <v>462</v>
       </c>
@@ -6833,7 +6836,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" s="34" t="s">
         <v>465</v>
       </c>
@@ -6841,7 +6844,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" s="35" t="s">
         <v>461</v>
       </c>
@@ -6849,7 +6852,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" s="35" t="s">
         <v>461</v>
       </c>
@@ -6857,7 +6860,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" s="36" t="s">
         <v>465</v>
       </c>
@@ -6865,7 +6868,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" s="36" t="s">
         <v>312</v>
       </c>
@@ -6873,7 +6876,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" s="36" t="s">
         <v>312</v>
       </c>
@@ -6881,7 +6884,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" s="36" t="s">
         <v>465</v>
       </c>
@@ -6889,7 +6892,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" s="36" t="s">
         <v>462</v>
       </c>
@@ -6897,7 +6900,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" s="36" t="s">
         <v>465</v>
       </c>
@@ -6905,7 +6908,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" s="36" t="s">
         <v>465</v>
       </c>
@@ -6913,7 +6916,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" s="36" t="s">
         <v>312</v>
       </c>
@@ -6921,7 +6924,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" s="36" t="s">
         <v>312</v>
       </c>
@@ -6929,7 +6932,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" s="36" t="s">
         <v>312</v>
       </c>
@@ -6937,7 +6940,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" s="36" t="s">
         <v>312</v>
       </c>
@@ -6945,7 +6948,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" s="36" t="s">
         <v>465</v>
       </c>
@@ -6953,7 +6956,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" s="37" t="s">
         <v>465</v>
       </c>
@@ -6961,7 +6964,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" s="37" t="s">
         <v>462</v>
       </c>
@@ -6969,7 +6972,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" s="37" t="s">
         <v>462</v>
       </c>
@@ -6977,7 +6980,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" s="37" t="s">
         <v>462</v>
       </c>
@@ -6985,7 +6988,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" s="38" t="s">
         <v>462</v>
       </c>
@@ -6993,7 +6996,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" s="39" t="s">
         <v>462</v>
       </c>
@@ -7001,7 +7004,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" s="39" t="s">
         <v>465</v>
       </c>
@@ -7009,7 +7012,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" s="39" t="s">
         <v>465</v>
       </c>
@@ -7017,7 +7020,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" s="39" t="s">
         <v>465</v>
       </c>
@@ -7025,7 +7028,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" s="40" t="s">
         <v>465</v>
       </c>
@@ -7033,7 +7036,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" s="40" t="s">
         <v>465</v>
       </c>
@@ -7041,7 +7044,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" s="40" t="s">
         <v>465</v>
       </c>
@@ -7049,7 +7052,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" s="40" t="s">
         <v>465</v>
       </c>
@@ -7057,7 +7060,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" s="40" t="s">
         <v>465</v>
       </c>
@@ -7065,7 +7068,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" s="40" t="s">
         <v>465</v>
       </c>
@@ -7073,7 +7076,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" s="40" t="s">
         <v>465</v>
       </c>
@@ -7081,7 +7084,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" s="40" t="s">
         <v>465</v>
       </c>
@@ -7089,7 +7092,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" s="41" t="s">
         <v>465</v>
       </c>
@@ -7097,7 +7100,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" s="41" t="s">
         <v>462</v>
       </c>
@@ -7105,7 +7108,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" s="41" t="s">
         <v>465</v>
       </c>
@@ -7113,7 +7116,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" s="41" t="s">
         <v>465</v>
       </c>
@@ -7121,7 +7124,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" s="41" t="s">
         <v>465</v>
       </c>
@@ -7129,7 +7132,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" s="42" t="s">
         <v>462</v>
       </c>
@@ -7137,7 +7140,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" s="42" t="s">
         <v>465</v>
       </c>
@@ -7145,7 +7148,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" s="42" t="s">
         <v>465</v>
       </c>
@@ -7153,7 +7156,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" s="42" t="s">
         <v>465</v>
       </c>
@@ -7161,7 +7164,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" s="42" t="s">
         <v>465</v>
       </c>
@@ -7169,7 +7172,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" s="42" t="s">
         <v>465</v>
       </c>
@@ -7177,7 +7180,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" s="42" t="s">
         <v>465</v>
       </c>
@@ -7185,7 +7188,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" s="42" t="s">
         <v>465</v>
       </c>
@@ -7193,7 +7196,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" s="42" t="s">
         <v>465</v>
       </c>
@@ -7201,7 +7204,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" s="42" t="s">
         <v>465</v>
       </c>
@@ -7209,7 +7212,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" s="42" t="s">
         <v>465</v>
       </c>
@@ -7217,7 +7220,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" s="42" t="s">
         <v>465</v>
       </c>
@@ -7225,7 +7228,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" s="42" t="s">
         <v>465</v>
       </c>
@@ -7233,7 +7236,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" s="42" t="s">
         <v>312</v>
       </c>
@@ -7241,7 +7244,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" s="42" t="s">
         <v>462</v>
       </c>
@@ -7249,7 +7252,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" s="42" t="s">
         <v>461</v>
       </c>
@@ -7257,7 +7260,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" s="42" t="s">
         <v>465</v>
       </c>
@@ -7265,7 +7268,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" s="42" t="s">
         <v>461</v>
       </c>
@@ -7273,7 +7276,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" s="42" t="s">
         <v>312</v>
       </c>
@@ -7281,7 +7284,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" s="42" t="s">
         <v>463</v>
       </c>
@@ -7289,7 +7292,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" s="43" t="s">
         <v>463</v>
       </c>
@@ -7297,7 +7300,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" s="43" t="s">
         <v>463</v>
       </c>
@@ -7305,7 +7308,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" s="43" t="s">
         <v>463</v>
       </c>
@@ -7313,7 +7316,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" s="43" t="s">
         <v>463</v>
       </c>
@@ -7321,7 +7324,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" s="43" t="s">
         <v>463</v>
       </c>
@@ -7329,7 +7332,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" s="43" t="s">
         <v>462</v>
       </c>
@@ -7337,7 +7340,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" s="43" t="s">
         <v>465</v>
       </c>
@@ -7345,7 +7348,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" s="43" t="s">
         <v>462</v>
       </c>
@@ -7353,7 +7356,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" s="43" t="s">
         <v>465</v>
       </c>
@@ -7361,7 +7364,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" s="43" t="s">
         <v>465</v>
       </c>
@@ -7369,7 +7372,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" s="43" t="s">
         <v>465</v>
       </c>
@@ -7377,7 +7380,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" s="43" t="s">
         <v>465</v>
       </c>
@@ -7385,7 +7388,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" s="43" t="s">
         <v>465</v>
       </c>
@@ -7393,7 +7396,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" s="43" t="s">
         <v>465</v>
       </c>
@@ -7401,7 +7404,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" s="43" t="s">
         <v>465</v>
       </c>
@@ -7409,7 +7412,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" s="43" t="s">
         <v>465</v>
       </c>
@@ -7417,7 +7420,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" s="43" t="s">
         <v>465</v>
       </c>
@@ -7425,7 +7428,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" s="43" t="s">
         <v>465</v>
       </c>
@@ -7433,7 +7436,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" s="43" t="s">
         <v>465</v>
       </c>
@@ -7441,7 +7444,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" s="43" t="s">
         <v>465</v>
       </c>
@@ -7449,7 +7452,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" s="43" t="s">
         <v>465</v>
       </c>
@@ -7457,7 +7460,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" s="43" t="s">
         <v>465</v>
       </c>
@@ -7465,7 +7468,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221" s="43" t="s">
         <v>312</v>
       </c>
@@ -7473,7 +7476,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222" s="44" t="s">
         <v>312</v>
       </c>
@@ -7481,7 +7484,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223" s="45" t="s">
         <v>465</v>
       </c>
@@ -7489,7 +7492,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" s="45" t="s">
         <v>462</v>
       </c>
@@ -7497,7 +7500,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225" s="45" t="s">
         <v>462</v>
       </c>
@@ -7505,7 +7508,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226" s="46" t="s">
         <v>465</v>
       </c>
@@ -7513,7 +7516,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227" s="47" t="s">
         <v>312</v>
       </c>
@@ -7521,7 +7524,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228" s="47" t="s">
         <v>312</v>
       </c>
@@ -7529,7 +7532,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229" s="47" t="s">
         <v>312</v>
       </c>
@@ -7537,7 +7540,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230" s="47" t="s">
         <v>461</v>
       </c>
@@ -7545,7 +7548,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231" s="47" t="s">
         <v>465</v>
       </c>
@@ -7553,7 +7556,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232" s="47" t="s">
         <v>465</v>
       </c>
@@ -7561,7 +7564,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233" s="47" t="s">
         <v>465</v>
       </c>
@@ -7569,7 +7572,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234" s="48" t="s">
         <v>467</v>
       </c>
@@ -7577,7 +7580,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235" s="48" t="s">
         <v>465</v>
       </c>
@@ -7585,7 +7588,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236" s="48" t="s">
         <v>465</v>
       </c>
@@ -7593,7 +7596,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237" s="48" t="s">
         <v>465</v>
       </c>
@@ -7601,7 +7604,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238" s="48" t="s">
         <v>465</v>
       </c>
@@ -7609,7 +7612,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239" s="48" t="s">
         <v>463</v>
       </c>
@@ -7617,7 +7620,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240" s="48" t="s">
         <v>465</v>
       </c>
@@ -7625,7 +7628,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241" s="49" t="s">
         <v>465</v>
       </c>
@@ -7633,7 +7636,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242" s="49" t="s">
         <v>461</v>
       </c>
@@ -7641,7 +7644,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243" s="50" t="s">
         <v>465</v>
       </c>
@@ -7649,7 +7652,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244" s="50" t="s">
         <v>465</v>
       </c>
@@ -7657,7 +7660,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245" s="50" t="s">
         <v>465</v>
       </c>
@@ -7665,7 +7668,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246" s="50" t="s">
         <v>465</v>
       </c>
@@ -7673,7 +7676,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247" s="50" t="s">
         <v>465</v>
       </c>
@@ -7681,7 +7684,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248" s="50" t="s">
         <v>465</v>
       </c>
@@ -7689,7 +7692,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249" s="50" t="s">
         <v>465</v>
       </c>
@@ -7697,7 +7700,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A250" s="51" t="s">
         <v>467</v>
       </c>
@@ -7705,7 +7708,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A251" s="51" t="s">
         <v>467</v>
       </c>
@@ -7713,7 +7716,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252" s="51" t="s">
         <v>462</v>
       </c>
@@ -7721,7 +7724,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253" s="51" t="s">
         <v>465</v>
       </c>
@@ -7729,7 +7732,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A254" s="52" t="s">
         <v>465</v>
       </c>
@@ -7737,7 +7740,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255" s="52" t="s">
         <v>461</v>
       </c>
@@ -7745,7 +7748,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256" s="52" t="s">
         <v>462</v>
       </c>
@@ -7753,7 +7756,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A257" s="52" t="s">
         <v>465</v>
       </c>
@@ -7761,7 +7764,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A258" s="52" t="s">
         <v>461</v>
       </c>
@@ -7769,7 +7772,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259" s="52" t="s">
         <v>465</v>
       </c>
@@ -7777,7 +7780,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A260" s="53" t="s">
         <v>465</v>
       </c>
@@ -7785,7 +7788,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A261" s="53" t="s">
         <v>465</v>
       </c>
@@ -7793,7 +7796,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A262" s="54" t="s">
         <v>461</v>
       </c>
@@ -7801,7 +7804,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A263" s="55" t="s">
         <v>461</v>
       </c>
@@ -7809,7 +7812,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A264" s="56" t="s">
         <v>463</v>
       </c>
@@ -7817,7 +7820,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A265" s="56" t="s">
         <v>461</v>
       </c>
@@ -7825,7 +7828,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A266" s="56" t="s">
         <v>461</v>
       </c>
@@ -7833,7 +7836,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A267" s="56" t="s">
         <v>467</v>
       </c>
@@ -7841,7 +7844,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A268" s="57" t="s">
         <v>467</v>
       </c>
@@ -7849,7 +7852,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A269" s="58" t="s">
         <v>462</v>
       </c>
@@ -7857,7 +7860,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A270" s="58" t="s">
         <v>462</v>
       </c>
@@ -7865,7 +7868,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A271" s="59" t="s">
         <v>465</v>
       </c>
@@ -7873,7 +7876,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A272" s="60" t="s">
         <v>465</v>
       </c>
@@ -7881,7 +7884,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A273" s="60" t="s">
         <v>462</v>
       </c>
@@ -7889,7 +7892,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A274" s="60" t="s">
         <v>462</v>
       </c>
@@ -7897,7 +7900,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A275" s="60" t="s">
         <v>462</v>
       </c>
@@ -7905,7 +7908,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A276" s="60" t="s">
         <v>462</v>
       </c>
@@ -7913,7 +7916,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A277" s="60" t="s">
         <v>462</v>
       </c>
@@ -7921,7 +7924,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A278" s="60" t="s">
         <v>462</v>
       </c>
@@ -7929,7 +7932,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A279" s="60" t="s">
         <v>465</v>
       </c>
@@ -7937,7 +7940,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A280" s="60" t="s">
         <v>465</v>
       </c>
@@ -7945,7 +7948,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A281" s="60" t="s">
         <v>462</v>
       </c>
@@ -7953,7 +7956,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A282" s="61" t="s">
         <v>462</v>
       </c>
@@ -7961,7 +7964,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A283" s="61" t="s">
         <v>465</v>
       </c>
@@ -7969,7 +7972,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A284" s="62" t="s">
         <v>461</v>
       </c>
@@ -7977,7 +7980,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A285" s="62" t="s">
         <v>465</v>
       </c>
@@ -7985,7 +7988,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A286" s="62" t="s">
         <v>465</v>
       </c>
@@ -7993,7 +7996,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A287" s="62" t="s">
         <v>465</v>
       </c>
@@ -8001,7 +8004,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A288" s="63" t="s">
         <v>463</v>
       </c>
@@ -8009,7 +8012,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A289" s="64" t="s">
         <v>463</v>
       </c>
@@ -8017,7 +8020,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A290" s="64" t="s">
         <v>463</v>
       </c>
@@ -8025,7 +8028,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A291" s="64" t="s">
         <v>312</v>
       </c>
@@ -8033,7 +8036,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A292" s="64" t="s">
         <v>312</v>
       </c>
@@ -8041,7 +8044,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A293" s="64" t="s">
         <v>312</v>
       </c>
@@ -8049,7 +8052,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A294" s="64" t="s">
         <v>312</v>
       </c>
@@ -8057,7 +8060,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A295" s="64" t="s">
         <v>465</v>
       </c>
@@ -8065,7 +8068,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A296" s="64" t="s">
         <v>467</v>
       </c>
@@ -8073,7 +8076,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A297" s="64" t="s">
         <v>465</v>
       </c>
@@ -8081,7 +8084,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A298" s="64" t="s">
         <v>467</v>
       </c>
@@ -8089,7 +8092,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A299" s="64" t="s">
         <v>462</v>
       </c>
@@ -8097,7 +8100,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A300" s="65" t="s">
         <v>462</v>
       </c>
@@ -8105,7 +8108,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A301" s="65" t="s">
         <v>465</v>
       </c>
@@ -8113,7 +8116,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A302" s="65" t="s">
         <v>465</v>
       </c>
@@ -8121,7 +8124,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A303" s="65" t="s">
         <v>312</v>
       </c>
@@ -8129,7 +8132,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A304" s="65" t="s">
         <v>462</v>
       </c>
@@ -8137,7 +8140,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A305" s="65" t="s">
         <v>467</v>
       </c>
@@ -8145,7 +8148,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A306" s="65" t="s">
         <v>462</v>
       </c>
@@ -8153,7 +8156,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A307" s="66" t="s">
         <v>465</v>
       </c>
@@ -8161,7 +8164,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A308" s="66" t="s">
         <v>461</v>
       </c>
@@ -8169,7 +8172,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A309" s="66" t="s">
         <v>467</v>
       </c>
@@ -8177,7 +8180,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A310" s="67" t="s">
         <v>312</v>
       </c>
@@ -8185,7 +8188,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A311" s="67" t="s">
         <v>312</v>
       </c>
@@ -8193,7 +8196,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A312" s="67" t="s">
         <v>312</v>
       </c>
@@ -8201,7 +8204,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A313" s="67" t="s">
         <v>462</v>
       </c>
@@ -8209,7 +8212,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A314" s="67" t="s">
         <v>462</v>
       </c>
@@ -8217,7 +8220,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A315" s="67" t="s">
         <v>462</v>
       </c>
@@ -8225,7 +8228,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A316" s="67" t="s">
         <v>462</v>
       </c>
@@ -8233,7 +8236,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A317" s="67" t="s">
         <v>462</v>
       </c>
@@ -8241,7 +8244,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A318" s="67" t="s">
         <v>462</v>
       </c>
@@ -8249,7 +8252,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A319" s="67" t="s">
         <v>462</v>
       </c>
@@ -8257,7 +8260,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A320" s="67" t="s">
         <v>462</v>
       </c>
@@ -8265,7 +8268,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A321" s="67" t="s">
         <v>462</v>
       </c>
@@ -8273,7 +8276,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A322" s="67" t="s">
         <v>465</v>
       </c>
@@ -8281,7 +8284,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A323" s="67" t="s">
         <v>462</v>
       </c>
@@ -8289,7 +8292,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A324" s="68" t="s">
         <v>462</v>
       </c>
@@ -8297,7 +8300,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="325" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:2" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A325" s="68" t="s">
         <v>468</v>
       </c>
@@ -8305,7 +8308,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A326" s="68" t="s">
         <v>462</v>
       </c>
@@ -8313,7 +8316,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A327" s="68" t="s">
         <v>461</v>
       </c>
@@ -8321,7 +8324,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A328" s="68" t="s">
         <v>462</v>
       </c>
@@ -8329,7 +8332,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A329" s="68" t="s">
         <v>465</v>
       </c>
@@ -8337,7 +8340,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A330" s="68" t="s">
         <v>312</v>
       </c>
@@ -8345,7 +8348,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A331" s="68" t="s">
         <v>312</v>
       </c>
@@ -8353,7 +8356,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A332" s="68" t="s">
         <v>312</v>
       </c>
@@ -8361,7 +8364,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A333" s="69" t="s">
         <v>312</v>
       </c>
@@ -8369,7 +8372,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A334" s="69" t="s">
         <v>312</v>
       </c>
@@ -8377,7 +8380,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A335" s="69" t="s">
         <v>312</v>
       </c>
@@ -8385,7 +8388,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A336" s="69" t="s">
         <v>312</v>
       </c>
@@ -8393,7 +8396,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A337" s="69" t="s">
         <v>312</v>
       </c>
@@ -8401,7 +8404,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A338" s="70" t="s">
         <v>312</v>
       </c>
@@ -8409,7 +8412,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A339" s="70" t="s">
         <v>312</v>
       </c>
@@ -8417,7 +8420,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A340" s="70" t="s">
         <v>312</v>
       </c>
@@ -8425,7 +8428,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A341" s="70" t="s">
         <v>312</v>
       </c>
@@ -8433,7 +8436,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A342" s="70" t="s">
         <v>312</v>
       </c>
@@ -8441,7 +8444,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A343" s="70" t="s">
         <v>462</v>
       </c>
@@ -8449,7 +8452,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A344" s="70" t="s">
         <v>461</v>
       </c>
@@ -8457,7 +8460,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A345" s="70" t="s">
         <v>461</v>
       </c>
@@ -8465,7 +8468,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A346" s="70" t="s">
         <v>461</v>
       </c>
@@ -8473,7 +8476,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A347" s="70" t="s">
         <v>462</v>
       </c>
@@ -8481,7 +8484,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A348" s="70" t="s">
         <v>462</v>
       </c>
@@ -8489,7 +8492,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A349" s="70" t="s">
         <v>462</v>
       </c>
@@ -8497,7 +8500,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A350" s="70" t="s">
         <v>465</v>
       </c>
@@ -8505,7 +8508,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A351" s="70" t="s">
         <v>467</v>
       </c>
@@ -8513,7 +8516,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A352" s="70" t="s">
         <v>467</v>
       </c>
@@ -8521,7 +8524,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A353" s="70" t="s">
         <v>467</v>
       </c>
@@ -8529,7 +8532,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A354" s="70" t="s">
         <v>467</v>
       </c>
@@ -8537,7 +8540,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A355" s="70" t="s">
         <v>467</v>
       </c>
@@ -8545,7 +8548,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A356" s="71" t="s">
         <v>463</v>
       </c>
@@ -8553,7 +8556,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A357" s="71" t="s">
         <v>312</v>
       </c>
@@ -8561,7 +8564,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A358" s="71" t="s">
         <v>312</v>
       </c>
@@ -8569,7 +8572,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A359" s="71" t="s">
         <v>312</v>
       </c>
@@ -8577,7 +8580,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A360" s="72" t="s">
         <v>461</v>
       </c>
@@ -8585,7 +8588,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A361" s="72" t="s">
         <v>462</v>
       </c>
@@ -8593,7 +8596,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A362" s="72" t="s">
         <v>461</v>
       </c>
@@ -8601,7 +8604,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A363" s="72" t="s">
         <v>461</v>
       </c>
@@ -8609,7 +8612,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A364" s="72" t="s">
         <v>461</v>
       </c>
@@ -8617,7 +8620,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A365" s="72" t="s">
         <v>465</v>
       </c>
@@ -8625,7 +8628,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A366" s="72" t="s">
         <v>465</v>
       </c>
@@ -8633,7 +8636,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A367" s="72" t="s">
         <v>463</v>
       </c>
@@ -8641,7 +8644,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="368" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A368" s="72" t="s">
         <v>465</v>
       </c>
@@ -8649,7 +8652,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="369" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A369" s="72" t="s">
         <v>465</v>
       </c>
@@ -8657,7 +8660,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="370" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A370" s="72" t="s">
         <v>465</v>
       </c>
@@ -8665,7 +8668,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="371" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A371" s="72" t="s">
         <v>465</v>
       </c>
@@ -8673,7 +8676,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="372" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A372" s="72" t="s">
         <v>465</v>
       </c>
@@ -8681,7 +8684,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="373" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A373" s="73" t="s">
         <v>465</v>
       </c>
@@ -8698,27 +8701,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J285"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A27" sqref="A27:B27"/>
+      <selection pane="bottomRight" activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="60.5703125" style="74" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="13"/>
-    <col min="5" max="5" width="11.140625" style="13" customWidth="1"/>
-    <col min="6" max="7" width="10.5703125" style="13" customWidth="1"/>
-    <col min="8" max="8" width="10.28515625" style="13" customWidth="1"/>
-    <col min="9" max="10" width="12.42578125" style="13" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="17.453125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="60.54296875" style="74" customWidth="1"/>
+    <col min="3" max="3" width="12.453125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="9.1796875" style="13"/>
+    <col min="5" max="5" width="11.1796875" style="13" customWidth="1"/>
+    <col min="6" max="7" width="10.54296875" style="13" customWidth="1"/>
+    <col min="8" max="8" width="10.26953125" style="13" customWidth="1"/>
+    <col min="9" max="10" width="12.453125" style="13" customWidth="1"/>
+    <col min="11" max="16384" width="9.1796875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>319</v>
       </c>
@@ -8750,7 +8753,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>466</v>
       </c>
@@ -8770,7 +8773,7 @@
       <c r="I2" s="12"/>
       <c r="J2" s="12"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>466</v>
       </c>
@@ -8790,7 +8793,7 @@
       <c r="I3" s="12"/>
       <c r="J3" s="12"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>312</v>
       </c>
@@ -8801,7 +8804,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>491</v>
       </c>
@@ -8817,7 +8820,7 @@
       <c r="I5" s="12"/>
       <c r="J5" s="12"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="74" t="s">
         <v>465</v>
       </c>
@@ -8828,7 +8831,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="74" t="s">
         <v>466</v>
       </c>
@@ -8839,7 +8842,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>462</v>
       </c>
@@ -8850,7 +8853,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="73" t="s">
         <v>462</v>
       </c>
@@ -8858,7 +8861,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="74" t="s">
         <v>465</v>
       </c>
@@ -8869,7 +8872,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="74" t="s">
         <v>491</v>
       </c>
@@ -8880,7 +8883,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="74" t="s">
         <v>465</v>
       </c>
@@ -8891,7 +8894,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="73" t="s">
         <v>466</v>
       </c>
@@ -8902,7 +8905,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>466</v>
       </c>
@@ -8913,7 +8916,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>466</v>
       </c>
@@ -8924,7 +8927,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>465</v>
       </c>
@@ -8935,7 +8938,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="74" t="s">
         <v>466</v>
       </c>
@@ -8946,15 +8949,15 @@
         <v>712</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>461</v>
       </c>
       <c r="B18" s="74" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>465</v>
       </c>
@@ -8965,7 +8968,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>465</v>
       </c>
@@ -8983,7 +8986,7 @@
       <c r="I20" s="12"/>
       <c r="J20" s="12"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="74" t="s">
         <v>312</v>
       </c>
@@ -8997,7 +9000,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>491</v>
       </c>
@@ -9008,7 +9011,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>461</v>
       </c>
@@ -9016,7 +9019,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="74" t="s">
         <v>465</v>
       </c>
@@ -9027,7 +9030,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>466</v>
       </c>
@@ -9038,7 +9041,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>491</v>
       </c>
@@ -9049,7 +9052,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="27" spans="1:10" s="73" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" s="73" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="74" t="s">
         <v>465</v>
       </c>
@@ -9064,7 +9067,7 @@
       <c r="I27" s="13"/>
       <c r="J27" s="13"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="73" t="s">
         <v>462</v>
       </c>
@@ -9075,7 +9078,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="74" t="s">
         <v>465</v>
       </c>
@@ -9086,7 +9089,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="73" t="s">
         <v>462</v>
       </c>
@@ -9097,7 +9100,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>462</v>
       </c>
@@ -9108,7 +9111,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>462</v>
       </c>
@@ -9116,7 +9119,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>468</v>
       </c>
@@ -9124,7 +9127,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="73" t="s">
         <v>467</v>
       </c>
@@ -9132,7 +9135,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>312</v>
       </c>
@@ -9140,7 +9143,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>463</v>
       </c>
@@ -9151,7 +9154,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>463</v>
       </c>
@@ -9162,7 +9165,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="74" t="s">
         <v>466</v>
       </c>
@@ -9173,7 +9176,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>465</v>
       </c>
@@ -9184,7 +9187,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>463</v>
       </c>
@@ -9192,7 +9195,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>463</v>
       </c>
@@ -9203,7 +9206,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>463</v>
       </c>
@@ -9217,7 +9220,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="74" t="s">
         <v>466</v>
       </c>
@@ -9228,7 +9231,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="74" t="s">
         <v>491</v>
       </c>
@@ -9239,7 +9242,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="74" t="s">
         <v>465</v>
       </c>
@@ -9250,7 +9253,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="74" t="s">
         <v>465</v>
       </c>
@@ -9261,7 +9264,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="74" t="s">
         <v>466</v>
       </c>
@@ -9272,7 +9275,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>465</v>
       </c>
@@ -9283,7 +9286,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="74" t="s">
         <v>462</v>
       </c>
@@ -9294,7 +9297,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>466</v>
       </c>
@@ -9305,7 +9308,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>465</v>
       </c>
@@ -9316,7 +9319,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>465</v>
       </c>
@@ -9327,7 +9330,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="74" t="s">
         <v>467</v>
       </c>
@@ -9338,7 +9341,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="74" t="s">
         <v>465</v>
       </c>
@@ -9349,7 +9352,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="74" t="s">
         <v>466</v>
       </c>
@@ -9360,7 +9363,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="74" t="s">
         <v>466</v>
       </c>
@@ -9371,7 +9374,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>461</v>
       </c>
@@ -9382,7 +9385,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>461</v>
       </c>
@@ -9390,7 +9393,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="73" t="s">
         <v>461</v>
       </c>
@@ -9398,7 +9401,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>466</v>
       </c>
@@ -9415,7 +9418,7 @@
       <c r="I60" s="73"/>
       <c r="J60" s="73"/>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>465</v>
       </c>
@@ -9431,7 +9434,7 @@
       <c r="I61" s="12"/>
       <c r="J61" s="12"/>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="74" t="s">
         <v>466</v>
       </c>
@@ -9442,7 +9445,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="73" t="s">
         <v>312</v>
       </c>
@@ -9453,7 +9456,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>466</v>
       </c>
@@ -9464,7 +9467,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>466</v>
       </c>
@@ -9475,7 +9478,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
         <v>466</v>
       </c>
@@ -9486,7 +9489,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>491</v>
       </c>
@@ -9497,7 +9500,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>465</v>
       </c>
@@ -9508,7 +9511,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="74" t="s">
         <v>466</v>
       </c>
@@ -9519,7 +9522,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
         <v>466</v>
       </c>
@@ -9530,7 +9533,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
         <v>466</v>
       </c>
@@ -9541,7 +9544,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>465</v>
       </c>
@@ -9552,7 +9555,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
         <v>466</v>
       </c>
@@ -9563,7 +9566,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
         <v>466</v>
       </c>
@@ -9574,7 +9577,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="74" t="s">
         <v>466</v>
       </c>
@@ -9585,7 +9588,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>491</v>
       </c>
@@ -9596,7 +9599,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="73" t="s">
         <v>461</v>
       </c>
@@ -9607,7 +9610,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="73" t="s">
         <v>461</v>
       </c>
@@ -9618,7 +9621,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
         <v>466</v>
       </c>
@@ -9629,7 +9632,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="74" t="s">
         <v>465</v>
       </c>
@@ -9643,7 +9646,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>465</v>
       </c>
@@ -9659,7 +9662,7 @@
       <c r="I81" s="12"/>
       <c r="J81" s="12"/>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" s="74" t="s">
         <v>491</v>
       </c>
@@ -9670,7 +9673,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
         <v>491</v>
       </c>
@@ -9681,7 +9684,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
         <v>465</v>
       </c>
@@ -9692,7 +9695,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" s="74" t="s">
         <v>465</v>
       </c>
@@ -9703,7 +9706,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>312</v>
       </c>
@@ -9711,7 +9714,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" s="74" t="s">
         <v>491</v>
       </c>
@@ -9722,7 +9725,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" s="74" t="s">
         <v>466</v>
       </c>
@@ -9736,7 +9739,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
         <v>466</v>
       </c>
@@ -9747,7 +9750,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
         <v>466</v>
       </c>
@@ -9758,7 +9761,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
         <v>466</v>
       </c>
@@ -9769,7 +9772,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" s="73" t="s">
         <v>465</v>
       </c>
@@ -9783,7 +9786,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
         <v>466</v>
       </c>
@@ -9794,7 +9797,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
         <v>466</v>
       </c>
@@ -9811,7 +9814,7 @@
       <c r="I94" s="73"/>
       <c r="J94" s="73"/>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" s="74" t="s">
         <v>466</v>
       </c>
@@ -9826,7 +9829,7 @@
       <c r="I95" s="73"/>
       <c r="J95" s="73"/>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
         <v>461</v>
       </c>
@@ -9834,7 +9837,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" s="73" t="s">
         <v>312</v>
       </c>
@@ -9845,7 +9848,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
         <v>312</v>
       </c>
@@ -9856,7 +9859,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
         <v>312</v>
       </c>
@@ -9867,7 +9870,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
         <v>466</v>
       </c>
@@ -9878,7 +9881,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
         <v>466</v>
       </c>
@@ -9889,7 +9892,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" s="15" t="s">
         <v>461</v>
       </c>
@@ -9904,7 +9907,7 @@
       </c>
       <c r="I102" s="12"/>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" s="73" t="s">
         <v>465</v>
       </c>
@@ -9915,7 +9918,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" s="73" t="s">
         <v>466</v>
       </c>
@@ -9926,7 +9929,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" s="73" t="s">
         <v>461</v>
       </c>
@@ -9934,7 +9937,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106" s="73" t="s">
         <v>466</v>
       </c>
@@ -9951,7 +9954,7 @@
       <c r="I106" s="12"/>
       <c r="J106" s="12"/>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107" s="73" t="s">
         <v>465</v>
       </c>
@@ -9965,7 +9968,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108" s="73" t="s">
         <v>462</v>
       </c>
@@ -9973,7 +9976,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109" s="73" t="s">
         <v>462</v>
       </c>
@@ -9981,7 +9984,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
         <v>466</v>
       </c>
@@ -9992,7 +9995,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
         <v>491</v>
       </c>
@@ -10003,7 +10006,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112" s="73" t="s">
         <v>465</v>
       </c>
@@ -10012,7 +10015,7 @@
       </c>
       <c r="J112" s="12"/>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
         <v>465</v>
       </c>
@@ -10023,7 +10026,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114" s="74" t="s">
         <v>465</v>
       </c>
@@ -10034,7 +10037,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115" s="74" t="s">
         <v>465</v>
       </c>
@@ -10045,7 +10048,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
         <v>465</v>
       </c>
@@ -10056,7 +10059,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
         <v>465</v>
       </c>
@@ -10067,7 +10070,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
         <v>461</v>
       </c>
@@ -10083,7 +10086,7 @@
       <c r="I118" s="12"/>
       <c r="J118" s="12"/>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119" s="73" t="s">
         <v>462</v>
       </c>
@@ -10091,7 +10094,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120" s="74" t="s">
         <v>465</v>
       </c>
@@ -10102,7 +10105,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121" s="73" t="s">
         <v>461</v>
       </c>
@@ -10113,7 +10116,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122" s="74" t="s">
         <v>466</v>
       </c>
@@ -10124,7 +10127,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
         <v>466</v>
       </c>
@@ -10135,7 +10138,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
         <v>466</v>
       </c>
@@ -10146,7 +10149,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125" s="73" t="s">
         <v>465</v>
       </c>
@@ -10157,7 +10160,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126" s="73" t="s">
         <v>465</v>
       </c>
@@ -10168,7 +10171,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127" s="73" t="s">
         <v>312</v>
       </c>
@@ -10179,7 +10182,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128" s="73" t="s">
         <v>312</v>
       </c>
@@ -10196,7 +10199,7 @@
       <c r="I128" s="73"/>
       <c r="J128" s="73"/>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129" s="73" t="s">
         <v>461</v>
       </c>
@@ -10212,7 +10215,7 @@
       <c r="I129" s="12"/>
       <c r="J129" s="12"/>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
         <v>462</v>
       </c>
@@ -10228,7 +10231,7 @@
       <c r="I130" s="12"/>
       <c r="J130" s="12"/>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A131" s="3" t="s">
         <v>462</v>
       </c>
@@ -10239,7 +10242,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A132" s="3" t="s">
         <v>465</v>
       </c>
@@ -10250,7 +10253,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A133" s="73" t="s">
         <v>461</v>
       </c>
@@ -10267,7 +10270,7 @@
       <c r="I133" s="73"/>
       <c r="J133" s="73"/>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A134" s="73" t="s">
         <v>466</v>
       </c>
@@ -10278,7 +10281,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A135" s="3" t="s">
         <v>466</v>
       </c>
@@ -10295,7 +10298,7 @@
       <c r="I135" s="73"/>
       <c r="J135" s="73"/>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A136" s="73" t="s">
         <v>465</v>
       </c>
@@ -10306,7 +10309,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A137" s="3" t="s">
         <v>465</v>
       </c>
@@ -10317,7 +10320,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A138" s="74" t="s">
         <v>462</v>
       </c>
@@ -10328,7 +10331,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A139" s="74" t="s">
         <v>465</v>
       </c>
@@ -10339,7 +10342,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A140" s="3" t="s">
         <v>465</v>
       </c>
@@ -10350,7 +10353,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A141" s="3" t="s">
         <v>465</v>
       </c>
@@ -10361,7 +10364,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A142" s="3" t="s">
         <v>465</v>
       </c>
@@ -10372,7 +10375,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A143" s="74" t="s">
         <v>466</v>
       </c>
@@ -10383,7 +10386,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A144" s="74" t="s">
         <v>465</v>
       </c>
@@ -10397,7 +10400,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="74" t="s">
         <v>467</v>
       </c>
@@ -10408,7 +10411,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="3" t="s">
         <v>465</v>
       </c>
@@ -10419,7 +10422,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="3" t="s">
         <v>465</v>
       </c>
@@ -10430,7 +10433,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="74" t="s">
         <v>465</v>
       </c>
@@ -10441,7 +10444,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="3" t="s">
         <v>466</v>
       </c>
@@ -10452,7 +10455,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="3" t="s">
         <v>466</v>
       </c>
@@ -10463,7 +10466,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="3" t="s">
         <v>466</v>
       </c>
@@ -10474,7 +10477,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="3" t="s">
         <v>466</v>
       </c>
@@ -10485,7 +10488,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="74" t="s">
         <v>463</v>
       </c>
@@ -10496,7 +10499,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="3" t="s">
         <v>465</v>
       </c>
@@ -10507,7 +10510,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="73" t="s">
         <v>461</v>
       </c>
@@ -10518,7 +10521,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="3" t="s">
         <v>465</v>
       </c>
@@ -10529,7 +10532,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="74" t="s">
         <v>462</v>
       </c>
@@ -10540,7 +10543,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="3" t="s">
         <v>461</v>
       </c>
@@ -10551,7 +10554,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="74" t="s">
         <v>465</v>
       </c>
@@ -10562,7 +10565,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
         <v>461</v>
       </c>
@@ -10570,7 +10573,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A161" s="3" t="s">
         <v>312</v>
       </c>
@@ -10581,7 +10584,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A162" s="3" t="s">
         <v>466</v>
       </c>
@@ -10592,7 +10595,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A163" s="3" t="s">
         <v>491</v>
       </c>
@@ -10603,7 +10606,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A164" s="3" t="s">
         <v>466</v>
       </c>
@@ -10614,7 +10617,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A165" s="3" t="s">
         <v>491</v>
       </c>
@@ -10625,7 +10628,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A166" s="3" t="s">
         <v>465</v>
       </c>
@@ -10636,7 +10639,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A167" s="3" t="s">
         <v>465</v>
       </c>
@@ -10647,7 +10650,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A168" s="3" t="s">
         <v>465</v>
       </c>
@@ -10658,7 +10661,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A169" s="3" t="s">
         <v>461</v>
       </c>
@@ -10669,7 +10672,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A170" s="73" t="s">
         <v>465</v>
       </c>
@@ -10685,7 +10688,7 @@
       <c r="I170" s="12"/>
       <c r="J170" s="12"/>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A171" s="73" t="s">
         <v>465</v>
       </c>
@@ -10693,7 +10696,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A172" s="74" t="s">
         <v>465</v>
       </c>
@@ -10704,7 +10707,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A173" s="74" t="s">
         <v>465</v>
       </c>
@@ -10715,7 +10718,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A174" s="73" t="s">
         <v>709</v>
       </c>
@@ -10726,7 +10729,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
         <v>463</v>
       </c>
@@ -10737,7 +10740,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
         <v>463</v>
       </c>
@@ -10748,7 +10751,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" s="73" t="s">
         <v>465</v>
       </c>
@@ -10759,7 +10762,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" s="73" t="s">
         <v>465</v>
       </c>
@@ -10770,7 +10773,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" s="74" t="s">
         <v>463</v>
       </c>
@@ -10781,7 +10784,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" s="73" t="s">
         <v>461</v>
       </c>
@@ -10792,7 +10795,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" s="73" t="s">
         <v>463</v>
       </c>
@@ -10803,7 +10806,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" s="3" t="s">
         <v>465</v>
       </c>
@@ -10817,7 +10820,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" s="3" t="s">
         <v>465</v>
       </c>
@@ -10828,7 +10831,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" s="73" t="s">
         <v>465</v>
       </c>
@@ -10839,7 +10842,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" s="3" t="s">
         <v>466</v>
       </c>
@@ -10850,7 +10853,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" s="3" t="s">
         <v>465</v>
       </c>
@@ -10861,7 +10864,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" s="3" t="s">
         <v>465</v>
       </c>
@@ -10872,7 +10875,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" s="3" t="s">
         <v>465</v>
       </c>
@@ -10883,7 +10886,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" s="3" t="s">
         <v>465</v>
       </c>
@@ -10894,7 +10897,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" s="3" t="s">
         <v>465</v>
       </c>
@@ -10905,7 +10908,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" s="3" t="s">
         <v>465</v>
       </c>
@@ -10916,7 +10919,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" s="3" t="s">
         <v>465</v>
       </c>
@@ -10927,7 +10930,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" s="3" t="s">
         <v>465</v>
       </c>
@@ -10938,7 +10941,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" s="3" t="s">
         <v>466</v>
       </c>
@@ -10949,7 +10952,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" s="3" t="s">
         <v>466</v>
       </c>
@@ -10960,7 +10963,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" s="3" t="s">
         <v>465</v>
       </c>
@@ -10971,7 +10974,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" s="3" t="s">
         <v>465</v>
       </c>
@@ -10982,7 +10985,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" s="3" t="s">
         <v>465</v>
       </c>
@@ -10993,7 +10996,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" s="3" t="s">
         <v>465</v>
       </c>
@@ -11004,7 +11007,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" s="3" t="s">
         <v>465</v>
       </c>
@@ -11015,7 +11018,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" s="3" t="s">
         <v>465</v>
       </c>
@@ -11026,7 +11029,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" s="3" t="s">
         <v>465</v>
       </c>
@@ -11037,7 +11040,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" s="73" t="s">
         <v>312</v>
       </c>
@@ -11048,7 +11051,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" s="73" t="s">
         <v>312</v>
       </c>
@@ -11059,7 +11062,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" s="73" t="s">
         <v>465</v>
       </c>
@@ -11070,7 +11073,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" s="73" t="s">
         <v>465</v>
       </c>
@@ -11081,7 +11084,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" s="74" t="s">
         <v>466</v>
       </c>
@@ -11092,7 +11095,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" s="2" t="s">
         <v>463</v>
       </c>
@@ -11103,7 +11106,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" s="73" t="s">
         <v>463</v>
       </c>
@@ -11111,7 +11114,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" s="73" t="s">
         <v>461</v>
       </c>
@@ -11122,7 +11125,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" s="3" t="s">
         <v>465</v>
       </c>
@@ -11133,7 +11136,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" s="73" t="s">
         <v>461</v>
       </c>
@@ -11142,7 +11145,7 @@
       </c>
       <c r="D212" s="14"/>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" s="74" t="s">
         <v>467</v>
       </c>
@@ -11153,7 +11156,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" s="73" t="s">
         <v>467</v>
       </c>
@@ -11164,7 +11167,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" s="73" t="s">
         <v>467</v>
       </c>
@@ -11173,7 +11176,7 @@
       </c>
       <c r="D215" s="14"/>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" s="3" t="s">
         <v>465</v>
       </c>
@@ -11184,7 +11187,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" s="3" t="s">
         <v>466</v>
       </c>
@@ -11195,7 +11198,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" s="3" t="s">
         <v>465</v>
       </c>
@@ -11206,7 +11209,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" s="73" t="s">
         <v>312</v>
       </c>
@@ -11217,7 +11220,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" s="73" t="s">
         <v>465</v>
       </c>
@@ -11228,7 +11231,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" s="73" t="s">
         <v>465</v>
       </c>
@@ -11239,7 +11242,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" s="73" t="s">
         <v>465</v>
       </c>
@@ -11247,7 +11250,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" s="3" t="s">
         <v>465</v>
       </c>
@@ -11258,7 +11261,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" s="3" t="s">
         <v>465</v>
       </c>
@@ -11269,7 +11272,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A225" s="3" t="s">
         <v>466</v>
       </c>
@@ -11280,7 +11283,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A226" s="3" t="s">
         <v>466</v>
       </c>
@@ -11291,7 +11294,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A227" s="3" t="s">
         <v>466</v>
       </c>
@@ -11302,7 +11305,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="228" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A228" s="73" t="s">
         <v>465</v>
       </c>
@@ -11313,7 +11316,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A229" s="3" t="s">
         <v>312</v>
       </c>
@@ -11325,7 +11328,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A230" s="3" t="s">
         <v>312</v>
       </c>
@@ -11338,7 +11341,7 @@
       <c r="E230" s="12"/>
       <c r="F230" s="12"/>
     </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A231" s="3" t="s">
         <v>312</v>
       </c>
@@ -11350,7 +11353,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A232" s="73" t="s">
         <v>461</v>
       </c>
@@ -11361,7 +11364,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="233" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A233" s="3" t="s">
         <v>465</v>
       </c>
@@ -11375,7 +11378,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="234" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A234" s="3" t="s">
         <v>465</v>
       </c>
@@ -11386,7 +11389,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="235" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A235" s="3" t="s">
         <v>465</v>
       </c>
@@ -11397,7 +11400,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="236" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A236" s="3" t="s">
         <v>465</v>
       </c>
@@ -11408,7 +11411,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="237" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A237" s="3" t="s">
         <v>465</v>
       </c>
@@ -11425,7 +11428,7 @@
       <c r="I237" s="12"/>
       <c r="J237" s="12"/>
     </row>
-    <row r="238" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A238" s="3" t="s">
         <v>465</v>
       </c>
@@ -11442,7 +11445,7 @@
       <c r="I238" s="12"/>
       <c r="J238" s="12"/>
     </row>
-    <row r="239" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A239" s="74" t="s">
         <v>465</v>
       </c>
@@ -11451,7 +11454,7 @@
       </c>
       <c r="D239" s="73"/>
     </row>
-    <row r="240" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A240" s="3" t="s">
         <v>465</v>
       </c>
@@ -11468,7 +11471,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="241" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A241" s="73" t="s">
         <v>465</v>
       </c>
@@ -11479,7 +11482,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="242" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A242" s="3" t="s">
         <v>465</v>
       </c>
@@ -11490,7 +11493,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="243" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A243" s="74" t="s">
         <v>466</v>
       </c>
@@ -11501,7 +11504,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="244" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A244" s="73" t="s">
         <v>462</v>
       </c>
@@ -11509,7 +11512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A245" s="74" t="s">
         <v>466</v>
       </c>
@@ -11520,7 +11523,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="246" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A246" s="74" t="s">
         <v>463</v>
       </c>
@@ -11531,7 +11534,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="247" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A247" s="73" t="s">
         <v>462</v>
       </c>
@@ -11539,7 +11542,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="248" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A248" s="73" t="s">
         <v>461</v>
       </c>
@@ -11547,7 +11550,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="249" spans="1:10" s="73" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:10" s="73" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A249" s="74" t="s">
         <v>465</v>
       </c>
@@ -11562,7 +11565,7 @@
       <c r="I249" s="13"/>
       <c r="J249" s="13"/>
     </row>
-    <row r="250" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A250" s="3" t="s">
         <v>466</v>
       </c>
@@ -11573,7 +11576,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="251" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A251" s="74" t="s">
         <v>466</v>
       </c>
@@ -11584,7 +11587,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="252" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A252" s="2" t="s">
         <v>465</v>
       </c>
@@ -11598,7 +11601,7 @@
       <c r="I252" s="12"/>
       <c r="J252" s="12"/>
     </row>
-    <row r="253" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A253" s="3" t="s">
         <v>466</v>
       </c>
@@ -11609,7 +11612,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="254" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A254" s="73" t="s">
         <v>462</v>
       </c>
@@ -11620,7 +11623,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="255" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A255" s="73" t="s">
         <v>465</v>
       </c>
@@ -11634,7 +11637,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="256" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A256" s="73" t="s">
         <v>461</v>
       </c>
@@ -11645,7 +11648,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A257" s="3" t="s">
         <v>465</v>
       </c>
@@ -11656,7 +11659,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A258" s="73" t="s">
         <v>312</v>
       </c>
@@ -11667,7 +11670,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A259" s="73" t="s">
         <v>312</v>
       </c>
@@ -11675,7 +11678,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A260" s="74" t="s">
         <v>466</v>
       </c>
@@ -11686,7 +11689,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A261" s="74" t="s">
         <v>465</v>
       </c>
@@ -11697,7 +11700,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A262" s="74" t="s">
         <v>465</v>
       </c>
@@ -11708,7 +11711,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A263" s="2" t="s">
         <v>463</v>
       </c>
@@ -11716,7 +11719,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A264" s="74" t="s">
         <v>461</v>
       </c>
@@ -11727,7 +11730,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A265" s="74" t="s">
         <v>465</v>
       </c>
@@ -11738,7 +11741,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A266" s="74" t="s">
         <v>491</v>
       </c>
@@ -11752,7 +11755,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A267" s="15" t="s">
         <v>462</v>
       </c>
@@ -11766,7 +11769,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A268" s="74" t="s">
         <v>466</v>
       </c>
@@ -11777,7 +11780,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A269" s="74" t="s">
         <v>465</v>
       </c>
@@ -11788,7 +11791,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A270" s="3" t="s">
         <v>465</v>
       </c>
@@ -11799,7 +11802,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A271" s="74" t="s">
         <v>465</v>
       </c>
@@ -11810,7 +11813,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A272" s="74" t="s">
         <v>463</v>
       </c>
@@ -11824,7 +11827,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="273" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A273" s="74" t="s">
         <v>465</v>
       </c>
@@ -11841,7 +11844,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="274" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A274" s="3" t="s">
         <v>465</v>
       </c>
@@ -11852,7 +11855,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="275" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A275" s="3" t="s">
         <v>465</v>
       </c>
@@ -11863,7 +11866,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="276" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A276" s="3" t="s">
         <v>466</v>
       </c>
@@ -11874,7 +11877,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="277" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A277" s="74" t="s">
         <v>461</v>
       </c>
@@ -11885,7 +11888,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="278" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A278" s="74" t="s">
         <v>461</v>
       </c>
@@ -11896,7 +11899,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="279" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A279" s="74" t="s">
         <v>466</v>
       </c>
@@ -11907,7 +11910,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="280" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A280" s="74" t="s">
         <v>465</v>
       </c>
@@ -11918,7 +11921,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="281" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A281" s="74" t="s">
         <v>469</v>
       </c>
@@ -11929,7 +11932,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="282" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A282" s="73" t="s">
         <v>461</v>
       </c>
@@ -11937,7 +11940,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="285" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D285" s="2"/>
       <c r="E285" s="2"/>
       <c r="F285" s="12"/>
@@ -11968,18 +11971,18 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="69" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="1"/>
-    <col min="4" max="8" width="10.28515625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.85546875" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="2" width="10.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.1796875" style="1"/>
+    <col min="4" max="8" width="10.26953125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.81640625" customWidth="1"/>
+    <col min="11" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>42</v>
       </c>
@@ -12008,7 +12011,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="74" t="s">
         <v>507</v>
       </c>
@@ -12023,7 +12026,7 @@
       <c r="H2" s="13"/>
       <c r="I2" s="13"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="74" t="s">
         <v>508</v>
       </c>
@@ -12038,7 +12041,7 @@
       <c r="H3" s="13"/>
       <c r="I3" s="13"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="74" t="s">
         <v>9</v>
       </c>
@@ -12051,7 +12054,7 @@
       <c r="H4" s="13"/>
       <c r="I4" s="13"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="74" t="s">
         <v>225</v>
       </c>
@@ -12066,7 +12069,7 @@
       <c r="H5" s="13"/>
       <c r="I5" s="13"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="74" t="s">
         <v>493</v>
       </c>
@@ -12081,7 +12084,7 @@
       <c r="H6" s="13"/>
       <c r="I6" s="13"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="74" t="s">
         <v>564</v>
       </c>
@@ -12090,7 +12093,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="74" t="s">
         <v>677</v>
       </c>
@@ -12105,7 +12108,7 @@
       <c r="H8" s="13"/>
       <c r="I8" s="13"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="74" t="s">
         <v>572</v>
       </c>
@@ -12120,7 +12123,7 @@
       <c r="H9" s="13"/>
       <c r="I9" s="13"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="74" t="s">
         <v>679</v>
       </c>
@@ -12135,7 +12138,7 @@
       <c r="H10" s="13"/>
       <c r="I10" s="13"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="74" t="s">
         <v>680</v>
       </c>
@@ -12150,7 +12153,7 @@
       <c r="H11" s="13"/>
       <c r="I11" s="13"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="74" t="s">
         <v>230</v>
       </c>
@@ -12165,7 +12168,7 @@
       <c r="H12" s="13"/>
       <c r="I12" s="13"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="74" t="s">
         <v>228</v>
       </c>
@@ -12178,7 +12181,7 @@
       <c r="H13" s="13"/>
       <c r="I13" s="13"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="74" t="s">
         <v>590</v>
       </c>
@@ -12193,7 +12196,7 @@
       <c r="H14" s="13"/>
       <c r="I14" s="13"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="74" t="s">
         <v>11</v>
       </c>
@@ -12206,7 +12209,7 @@
       <c r="H15" s="13"/>
       <c r="I15" s="13"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="74" t="s">
         <v>10</v>
       </c>
@@ -12242,18 +12245,18 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="69" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="1"/>
-    <col min="4" max="8" width="10.28515625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.85546875" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="2" width="10.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.1796875" style="1"/>
+    <col min="4" max="8" width="10.26953125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.81640625" customWidth="1"/>
+    <col min="11" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>42</v>
       </c>
@@ -12282,7 +12285,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="74" t="s">
         <v>601</v>
       </c>
@@ -12297,7 +12300,7 @@
       <c r="H2" s="13"/>
       <c r="I2" s="13"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="74" t="s">
         <v>1</v>
       </c>
@@ -12310,7 +12313,7 @@
       <c r="H3" s="13"/>
       <c r="I3" s="13"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="74" t="s">
         <v>6</v>
       </c>
@@ -12325,7 +12328,7 @@
       <c r="H4" s="13"/>
       <c r="I4" s="13"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="74" t="s">
         <v>4</v>
       </c>
@@ -12340,7 +12343,7 @@
       <c r="H5" s="13"/>
       <c r="I5" s="13"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="74" t="s">
         <v>5</v>
       </c>
@@ -12355,7 +12358,7 @@
       <c r="H6" s="13"/>
       <c r="I6" s="13"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="74" t="s">
         <v>8</v>
       </c>
@@ -12368,7 +12371,7 @@
       <c r="H7" s="13"/>
       <c r="I7" s="13"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="74" t="s">
         <v>514</v>
       </c>
@@ -12383,7 +12386,7 @@
       <c r="H8" s="13"/>
       <c r="I8" s="13"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="74" t="s">
         <v>24</v>
       </c>
@@ -12396,7 +12399,7 @@
       <c r="H9" s="13"/>
       <c r="I9" s="13"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="74" t="s">
         <v>25</v>
       </c>
@@ -12409,7 +12412,7 @@
       <c r="H10" s="13"/>
       <c r="I10" s="13"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="74" t="s">
         <v>166</v>
       </c>
@@ -12422,7 +12425,7 @@
       <c r="H11" s="13"/>
       <c r="I11" s="13"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="74" t="s">
         <v>479</v>
       </c>
@@ -12437,7 +12440,7 @@
       <c r="H12" s="12"/>
       <c r="I12" s="12"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="74" t="s">
         <v>549</v>
       </c>
@@ -12452,7 +12455,7 @@
       <c r="H13" s="13"/>
       <c r="I13" s="13"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="74" t="s">
         <v>553</v>
       </c>
@@ -12467,7 +12470,7 @@
       <c r="H14" s="13"/>
       <c r="I14" s="13"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="74" t="s">
         <v>565</v>
       </c>
@@ -12482,7 +12485,7 @@
       <c r="H15" s="13"/>
       <c r="I15" s="13"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="74" t="s">
         <v>0</v>
       </c>
@@ -12495,7 +12498,7 @@
       <c r="H16" s="13"/>
       <c r="I16" s="13"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="74" t="s">
         <v>68</v>
       </c>
@@ -12508,7 +12511,7 @@
       <c r="H17" s="13"/>
       <c r="I17" s="13"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="74" t="s">
         <v>594</v>
       </c>
@@ -12523,7 +12526,7 @@
       <c r="H18" s="13"/>
       <c r="I18" s="13"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="74" t="s">
         <v>490</v>
       </c>
@@ -12556,18 +12559,18 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="69" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="1"/>
-    <col min="4" max="8" width="10.28515625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.85546875" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="2" width="10.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.1796875" style="1"/>
+    <col min="4" max="8" width="10.26953125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.81640625" customWidth="1"/>
+    <col min="11" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>42</v>
       </c>
@@ -12596,7 +12599,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="74" t="s">
         <v>74</v>
       </c>
@@ -12609,7 +12612,7 @@
       <c r="H2" s="13"/>
       <c r="I2" s="13"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="74" t="s">
         <v>14</v>
       </c>
@@ -12622,7 +12625,7 @@
       <c r="H3" s="13"/>
       <c r="I3" s="13"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="74" t="s">
         <v>481</v>
       </c>
@@ -12637,7 +12640,7 @@
       <c r="H4" s="13"/>
       <c r="I4" s="13"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="74" t="s">
         <v>20</v>
       </c>
@@ -12650,7 +12653,7 @@
       <c r="H5" s="13"/>
       <c r="I5" s="13"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="74" t="s">
         <v>19</v>
       </c>
@@ -12663,7 +12666,7 @@
       <c r="H6" s="13"/>
       <c r="I6" s="13"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="74" t="s">
         <v>531</v>
       </c>
@@ -12678,7 +12681,7 @@
       <c r="H7" s="13"/>
       <c r="I7" s="13"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="74" t="s">
         <v>614</v>
       </c>
@@ -12693,7 +12696,7 @@
       <c r="H8" s="13"/>
       <c r="I8" s="13"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="74" t="s">
         <v>21</v>
       </c>
@@ -12706,7 +12709,7 @@
       <c r="H9" s="13"/>
       <c r="I9" s="13"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="74" t="s">
         <v>483</v>
       </c>
@@ -12721,7 +12724,7 @@
       <c r="H10" s="12"/>
       <c r="I10" s="13"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="74" t="s">
         <v>15</v>
       </c>
@@ -12734,7 +12737,7 @@
       <c r="H11" s="13"/>
       <c r="I11" s="13"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="74" t="s">
         <v>478</v>
       </c>
@@ -12749,7 +12752,7 @@
       <c r="H12" s="12"/>
       <c r="I12" s="12"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="74" t="s">
         <v>545</v>
       </c>
@@ -12764,7 +12767,7 @@
       <c r="H13" s="13"/>
       <c r="I13" s="13"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="74" t="s">
         <v>477</v>
       </c>
@@ -12779,7 +12782,7 @@
       <c r="H14" s="12"/>
       <c r="I14" s="12"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="74" t="s">
         <v>661</v>
       </c>
@@ -12794,7 +12797,7 @@
       <c r="H15" s="73"/>
       <c r="I15" s="73"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="74" t="s">
         <v>668</v>
       </c>
@@ -12809,7 +12812,7 @@
       <c r="H16" s="13"/>
       <c r="I16" s="13"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="74" t="s">
         <v>566</v>
       </c>
@@ -12824,7 +12827,7 @@
       <c r="H17" s="13"/>
       <c r="I17" s="13"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="74" t="s">
         <v>298</v>
       </c>
@@ -12837,7 +12840,7 @@
       <c r="H18" s="13"/>
       <c r="I18" s="13"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="74" t="s">
         <v>571</v>
       </c>
@@ -12852,7 +12855,7 @@
       <c r="H19" s="13"/>
       <c r="I19" s="13"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="74" t="s">
         <v>486</v>
       </c>
@@ -12867,7 +12870,7 @@
       <c r="H20" s="13"/>
       <c r="I20" s="13"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="74" t="s">
         <v>13</v>
       </c>
@@ -12882,7 +12885,7 @@
       <c r="H21" s="13"/>
       <c r="I21" s="13"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="74" t="s">
         <v>231</v>
       </c>
@@ -12895,7 +12898,7 @@
       <c r="H22" s="13"/>
       <c r="I22" s="13"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="74" t="s">
         <v>16</v>
       </c>
@@ -12910,7 +12913,7 @@
       <c r="H23" s="13"/>
       <c r="I23" s="13"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="74" t="s">
         <v>32</v>
       </c>
@@ -12923,7 +12926,7 @@
       <c r="H24" s="13"/>
       <c r="I24" s="13"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="74" t="s">
         <v>64</v>
       </c>
@@ -12938,7 +12941,7 @@
       <c r="H25" s="13"/>
       <c r="I25" s="13"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="74" t="s">
         <v>71</v>
       </c>
@@ -12953,7 +12956,7 @@
       <c r="H26" s="13"/>
       <c r="I26" s="13"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="74" t="s">
         <v>707</v>
       </c>
@@ -12968,7 +12971,7 @@
       <c r="H27" s="13"/>
       <c r="I27" s="13"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="74" t="s">
         <v>708</v>
       </c>
@@ -12983,7 +12986,7 @@
       <c r="H28" s="13"/>
       <c r="I28" s="13"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="74" t="s">
         <v>439</v>
       </c>
@@ -13014,18 +13017,18 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="69" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="1"/>
-    <col min="4" max="8" width="10.28515625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.85546875" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="2" width="10.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.1796875" style="1"/>
+    <col min="4" max="8" width="10.26953125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.81640625" customWidth="1"/>
+    <col min="11" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>42</v>
       </c>
@@ -13072,18 +13075,18 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="69" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="1"/>
-    <col min="4" max="8" width="10.28515625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.85546875" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="2" width="10.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.1796875" style="1"/>
+    <col min="4" max="8" width="10.26953125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.81640625" customWidth="1"/>
+    <col min="11" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>42</v>
       </c>
@@ -13112,7 +13115,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="74" t="s">
         <v>615</v>
       </c>
@@ -13139,18 +13142,18 @@
       <selection pane="bottomRight" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="69" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="1"/>
-    <col min="4" max="8" width="10.28515625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.85546875" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="2" width="10.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.1796875" style="1"/>
+    <col min="4" max="8" width="10.26953125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.81640625" customWidth="1"/>
+    <col min="11" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>42</v>
       </c>
@@ -13179,7 +13182,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="74" t="s">
         <v>600</v>
       </c>
@@ -13194,7 +13197,7 @@
       <c r="H2" s="13"/>
       <c r="I2" s="13"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="74" t="s">
         <v>602</v>
       </c>
@@ -13209,7 +13212,7 @@
       <c r="H3" s="13"/>
       <c r="I3" s="13"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="74" t="s">
         <v>500</v>
       </c>
@@ -13224,7 +13227,7 @@
       <c r="H4" s="13"/>
       <c r="I4" s="13"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="74" t="s">
         <v>206</v>
       </c>
@@ -13239,7 +13242,7 @@
       <c r="H5" s="13"/>
       <c r="I5" s="13"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="74" t="s">
         <v>72</v>
       </c>
@@ -13254,7 +13257,7 @@
       <c r="H6" s="13"/>
       <c r="I6" s="13"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="74" t="s">
         <v>492</v>
       </c>
@@ -13271,7 +13274,7 @@
       <c r="H7" s="12"/>
       <c r="I7" s="12"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="74" t="s">
         <v>505</v>
       </c>
@@ -13286,7 +13289,7 @@
       <c r="H8" s="13"/>
       <c r="I8" s="13"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="74" t="s">
         <v>718</v>
       </c>
@@ -13299,7 +13302,7 @@
       <c r="H9" s="13"/>
       <c r="I9" s="13"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="74" t="s">
         <v>605</v>
       </c>
@@ -13314,7 +13317,7 @@
       <c r="H10" s="13"/>
       <c r="I10" s="13"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="74" t="s">
         <v>53</v>
       </c>
@@ -13329,7 +13332,7 @@
       <c r="H11" s="13"/>
       <c r="I11" s="13"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="74" t="s">
         <v>512</v>
       </c>
@@ -13344,7 +13347,7 @@
       <c r="H12" s="13"/>
       <c r="I12" s="13"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="74" t="s">
         <v>606</v>
       </c>
@@ -13359,7 +13362,7 @@
       <c r="H13" s="13"/>
       <c r="I13" s="13"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="74" t="s">
         <v>159</v>
       </c>
@@ -13374,7 +13377,7 @@
       <c r="H14" s="13"/>
       <c r="I14" s="13"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="74" t="s">
         <v>607</v>
       </c>
@@ -13389,7 +13392,7 @@
       <c r="H15" s="13"/>
       <c r="I15" s="13"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="74" t="s">
         <v>608</v>
       </c>
@@ -13404,7 +13407,7 @@
       <c r="H16" s="13"/>
       <c r="I16" s="13"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="74" t="s">
         <v>516</v>
       </c>
@@ -13419,7 +13422,7 @@
       <c r="H17" s="13"/>
       <c r="I17" s="13"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="74" t="s">
         <v>482</v>
       </c>
@@ -13434,7 +13437,7 @@
       <c r="H18" s="12"/>
       <c r="I18" s="12"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="74" t="s">
         <v>611</v>
       </c>
@@ -13449,7 +13452,7 @@
       <c r="H19" s="13"/>
       <c r="I19" s="13"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="74" t="s">
         <v>612</v>
       </c>
@@ -13464,7 +13467,7 @@
       <c r="H20" s="13"/>
       <c r="I20" s="13"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="74" t="s">
         <v>643</v>
       </c>
@@ -13475,7 +13478,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="74" t="s">
         <v>489</v>
       </c>
@@ -13490,7 +13493,7 @@
       <c r="H22" s="12"/>
       <c r="I22" s="12"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="74" t="s">
         <v>644</v>
       </c>
@@ -13505,7 +13508,7 @@
       <c r="H23" s="13"/>
       <c r="I23" s="13"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="74" t="s">
         <v>645</v>
       </c>
@@ -13520,7 +13523,7 @@
       <c r="H24" s="13"/>
       <c r="I24" s="13"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="74" t="s">
         <v>648</v>
       </c>
@@ -13537,7 +13540,7 @@
       <c r="H25" s="13"/>
       <c r="I25" s="13"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="74" t="s">
         <v>651</v>
       </c>
@@ -13552,7 +13555,7 @@
       <c r="H26" s="13"/>
       <c r="I26" s="13"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="74" t="s">
         <v>484</v>
       </c>
@@ -13567,7 +13570,7 @@
       <c r="H27" s="13"/>
       <c r="I27" s="13"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="74" t="s">
         <v>34</v>
       </c>
@@ -13580,7 +13583,7 @@
       <c r="H28" s="13"/>
       <c r="I28" s="12"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="74" t="s">
         <v>653</v>
       </c>
@@ -13595,7 +13598,7 @@
       <c r="H29" s="13"/>
       <c r="I29" s="13"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="74" t="s">
         <v>703</v>
       </c>
@@ -13610,7 +13613,7 @@
       <c r="H30" s="13"/>
       <c r="I30" s="13"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="74" t="s">
         <v>704</v>
       </c>
@@ -13625,7 +13628,7 @@
       <c r="H31" s="13"/>
       <c r="I31" s="13"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="74" t="s">
         <v>654</v>
       </c>
@@ -13640,7 +13643,7 @@
       <c r="H32" s="13"/>
       <c r="I32" s="13"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="74" t="s">
         <v>655</v>
       </c>
@@ -13655,7 +13658,7 @@
       <c r="H33" s="13"/>
       <c r="I33" s="13"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="74" t="s">
         <v>656</v>
       </c>
@@ -13670,7 +13673,7 @@
       <c r="H34" s="13"/>
       <c r="I34" s="13"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="74" t="s">
         <v>657</v>
       </c>
@@ -13685,7 +13688,7 @@
       <c r="H35" s="13"/>
       <c r="I35" s="13"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="74" t="s">
         <v>658</v>
       </c>
@@ -13700,7 +13703,7 @@
       <c r="H36" s="13"/>
       <c r="I36" s="13"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="74" t="s">
         <v>660</v>
       </c>
@@ -13715,7 +13718,7 @@
       <c r="H37" s="13"/>
       <c r="I37" s="13"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="74" t="s">
         <v>662</v>
       </c>
@@ -13730,7 +13733,7 @@
       <c r="H38" s="13"/>
       <c r="I38" s="13"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="74" t="s">
         <v>552</v>
       </c>
@@ -13745,7 +13748,7 @@
       <c r="H39" s="13"/>
       <c r="I39" s="13"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="74" t="s">
         <v>554</v>
       </c>
@@ -13760,7 +13763,7 @@
       <c r="H40" s="13"/>
       <c r="I40" s="13"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="74" t="s">
         <v>555</v>
       </c>
@@ -13775,7 +13778,7 @@
       <c r="H41" s="13"/>
       <c r="I41" s="13"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="74" t="s">
         <v>663</v>
       </c>
@@ -13790,7 +13793,7 @@
       <c r="H42" s="13"/>
       <c r="I42" s="13"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="74" t="s">
         <v>664</v>
       </c>
@@ -13805,7 +13808,7 @@
       <c r="H43" s="13"/>
       <c r="I43" s="13"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="74" t="s">
         <v>665</v>
       </c>
@@ -13822,7 +13825,7 @@
       <c r="H44" s="13"/>
       <c r="I44" s="13"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="74" t="s">
         <v>557</v>
       </c>
@@ -13837,7 +13840,7 @@
       <c r="H45" s="13"/>
       <c r="I45" s="13"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="74" t="s">
         <v>558</v>
       </c>
@@ -13852,7 +13855,7 @@
       <c r="H46" s="13"/>
       <c r="I46" s="13"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="74" t="s">
         <v>559</v>
       </c>
@@ -13867,7 +13870,7 @@
       <c r="H47" s="13"/>
       <c r="I47" s="13"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="74" t="s">
         <v>667</v>
       </c>
@@ -13882,7 +13885,7 @@
       <c r="H48" s="13"/>
       <c r="I48" s="13"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="74" t="s">
         <v>669</v>
       </c>
@@ -13897,7 +13900,7 @@
       <c r="H49" s="13"/>
       <c r="I49" s="13"/>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="74" t="s">
         <v>670</v>
       </c>
@@ -13912,7 +13915,7 @@
       <c r="H50" s="13"/>
       <c r="I50" s="13"/>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="74" t="s">
         <v>672</v>
       </c>
@@ -13927,7 +13930,7 @@
       <c r="H51" s="13"/>
       <c r="I51" s="13"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="74" t="s">
         <v>673</v>
       </c>
@@ -13942,7 +13945,7 @@
       <c r="H52" s="13"/>
       <c r="I52" s="13"/>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="74" t="s">
         <v>674</v>
       </c>
@@ -13957,7 +13960,7 @@
       <c r="H53" s="13"/>
       <c r="I53" s="13"/>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="74" t="s">
         <v>485</v>
       </c>
@@ -13972,7 +13975,7 @@
       <c r="H54" s="12"/>
       <c r="I54" s="12"/>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="74" t="s">
         <v>35</v>
       </c>
@@ -13985,7 +13988,7 @@
       <c r="H55" s="13"/>
       <c r="I55" s="13"/>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="74" t="s">
         <v>675</v>
       </c>
@@ -14000,7 +14003,7 @@
       <c r="H56" s="13"/>
       <c r="I56" s="13"/>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="74" t="s">
         <v>676</v>
       </c>
@@ -14015,7 +14018,7 @@
       <c r="H57" s="13"/>
       <c r="I57" s="13"/>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="74" t="s">
         <v>678</v>
       </c>
@@ -14030,7 +14033,7 @@
       <c r="H58" s="13"/>
       <c r="I58" s="13"/>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="74" t="s">
         <v>573</v>
       </c>
@@ -14045,7 +14048,7 @@
       <c r="H59" s="13"/>
       <c r="I59" s="13"/>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="74" t="s">
         <v>26</v>
       </c>
@@ -14062,7 +14065,7 @@
       <c r="H60" s="13"/>
       <c r="I60" s="13"/>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="74" t="s">
         <v>681</v>
       </c>
@@ -14077,7 +14080,7 @@
       <c r="H61" s="13"/>
       <c r="I61" s="13"/>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="74" t="s">
         <v>682</v>
       </c>
@@ -14092,7 +14095,7 @@
       <c r="H62" s="13"/>
       <c r="I62" s="13"/>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="74" t="s">
         <v>683</v>
       </c>
@@ -14107,7 +14110,7 @@
       <c r="H63" s="13"/>
       <c r="I63" s="13"/>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="74" t="s">
         <v>575</v>
       </c>
@@ -14122,7 +14125,7 @@
       <c r="H64" s="13"/>
       <c r="I64" s="13"/>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="74" t="s">
         <v>684</v>
       </c>
@@ -14137,7 +14140,7 @@
       <c r="H65" s="13"/>
       <c r="I65" s="13"/>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="74" t="s">
         <v>685</v>
       </c>
@@ -14152,7 +14155,7 @@
       <c r="H66" s="13"/>
       <c r="I66" s="13"/>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="74" t="s">
         <v>686</v>
       </c>
@@ -14167,7 +14170,7 @@
       <c r="H67" s="13"/>
       <c r="I67" s="13"/>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="74" t="s">
         <v>687</v>
       </c>
@@ -14182,7 +14185,7 @@
       <c r="H68" s="13"/>
       <c r="I68" s="13"/>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="74" t="s">
         <v>688</v>
       </c>
@@ -14197,7 +14200,7 @@
       <c r="H69" s="13"/>
       <c r="I69" s="13"/>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="74" t="s">
         <v>689</v>
       </c>
@@ -14212,7 +14215,7 @@
       <c r="H70" s="13"/>
       <c r="I70" s="13"/>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="74" t="s">
         <v>692</v>
       </c>
@@ -14227,7 +14230,7 @@
       <c r="H71" s="13"/>
       <c r="I71" s="13"/>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="74" t="s">
         <v>693</v>
       </c>
@@ -14242,7 +14245,7 @@
       <c r="H72" s="13"/>
       <c r="I72" s="13"/>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="74" t="s">
         <v>694</v>
       </c>
@@ -14257,7 +14260,7 @@
       <c r="H73" s="13"/>
       <c r="I73" s="13"/>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="74" t="s">
         <v>576</v>
       </c>
@@ -14272,7 +14275,7 @@
       <c r="H74" s="13"/>
       <c r="I74" s="13"/>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="74" t="s">
         <v>695</v>
       </c>
@@ -14287,7 +14290,7 @@
       <c r="H75" s="13"/>
       <c r="I75" s="13"/>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="74" t="s">
         <v>696</v>
       </c>
@@ -14302,7 +14305,7 @@
       <c r="H76" s="13"/>
       <c r="I76" s="13"/>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="74" t="s">
         <v>697</v>
       </c>
@@ -14317,7 +14320,7 @@
       <c r="H77" s="13"/>
       <c r="I77" s="13"/>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" s="74" t="s">
         <v>699</v>
       </c>
@@ -14332,7 +14335,7 @@
       <c r="H78" s="13"/>
       <c r="I78" s="13"/>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" s="74" t="s">
         <v>641</v>
       </c>
@@ -14347,7 +14350,7 @@
       <c r="H79" s="13"/>
       <c r="I79" s="13"/>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" s="74" t="s">
         <v>640</v>
       </c>
@@ -14362,7 +14365,7 @@
       <c r="H80" s="13"/>
       <c r="I80" s="13"/>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" s="74" t="s">
         <v>639</v>
       </c>
@@ -14377,7 +14380,7 @@
       <c r="H81" s="13"/>
       <c r="I81" s="13"/>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" s="74" t="s">
         <v>638</v>
       </c>
@@ -14392,7 +14395,7 @@
       <c r="H82" s="13"/>
       <c r="I82" s="13"/>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" s="74" t="s">
         <v>636</v>
       </c>
@@ -14407,7 +14410,7 @@
       <c r="H83" s="13"/>
       <c r="I83" s="13"/>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" s="74" t="s">
         <v>97</v>
       </c>
@@ -14422,7 +14425,7 @@
       <c r="H84" s="13"/>
       <c r="I84" s="13"/>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" s="74" t="s">
         <v>33</v>
       </c>
@@ -14435,7 +14438,7 @@
       <c r="H85" s="13"/>
       <c r="I85" s="13"/>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" s="74" t="s">
         <v>635</v>
       </c>
@@ -14450,7 +14453,7 @@
       <c r="H86" s="13"/>
       <c r="I86" s="13"/>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" s="74" t="s">
         <v>581</v>
       </c>
@@ -14465,7 +14468,7 @@
       <c r="H87" s="13"/>
       <c r="I87" s="13"/>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" s="74" t="s">
         <v>634</v>
       </c>
@@ -14480,7 +14483,7 @@
       <c r="H88" s="13"/>
       <c r="I88" s="13"/>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" s="74" t="s">
         <v>633</v>
       </c>
@@ -14497,7 +14500,7 @@
       <c r="H89" s="13"/>
       <c r="I89" s="13"/>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" s="74" t="s">
         <v>632</v>
       </c>
@@ -14512,7 +14515,7 @@
       <c r="H90" s="13"/>
       <c r="I90" s="13"/>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" s="74" t="s">
         <v>631</v>
       </c>
@@ -14527,7 +14530,7 @@
       <c r="H91" s="13"/>
       <c r="I91" s="13"/>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" s="74" t="s">
         <v>630</v>
       </c>
@@ -14542,7 +14545,7 @@
       <c r="H92" s="13"/>
       <c r="I92" s="13"/>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" s="74" t="s">
         <v>586</v>
       </c>
@@ -14557,7 +14560,7 @@
       <c r="H93" s="12"/>
       <c r="I93" s="12"/>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" s="74" t="s">
         <v>629</v>
       </c>
@@ -14572,7 +14575,7 @@
       <c r="H94" s="12"/>
       <c r="I94" s="12"/>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" s="74" t="s">
         <v>628</v>
       </c>
@@ -14585,7 +14588,7 @@
       <c r="H95" s="13"/>
       <c r="I95" s="13"/>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" s="74" t="s">
         <v>203</v>
       </c>
@@ -14602,7 +14605,7 @@
       <c r="H96" s="13"/>
       <c r="I96" s="13"/>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" s="74" t="s">
         <v>414</v>
       </c>
@@ -14617,7 +14620,7 @@
       <c r="H97" s="13"/>
       <c r="I97" s="13"/>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" s="74" t="s">
         <v>587</v>
       </c>
@@ -14632,7 +14635,7 @@
       <c r="H98" s="13"/>
       <c r="I98" s="13"/>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" s="81" t="s">
         <v>719</v>
       </c>
@@ -14645,7 +14648,7 @@
       <c r="H99" s="13"/>
       <c r="I99" s="13"/>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" s="74" t="s">
         <v>31</v>
       </c>
@@ -14658,7 +14661,7 @@
       <c r="H100" s="12"/>
       <c r="I100" s="12"/>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" s="74" t="s">
         <v>599</v>
       </c>
@@ -14675,7 +14678,7 @@
       <c r="H101" s="13"/>
       <c r="I101" s="13"/>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" s="74" t="s">
         <v>627</v>
       </c>
@@ -14690,7 +14693,7 @@
       <c r="H102" s="13"/>
       <c r="I102" s="13"/>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" s="74" t="s">
         <v>625</v>
       </c>
@@ -14705,7 +14708,7 @@
       <c r="H103" s="13"/>
       <c r="I103" s="13"/>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" s="74" t="s">
         <v>624</v>
       </c>
@@ -14720,7 +14723,7 @@
       <c r="H104" s="13"/>
       <c r="I104" s="13"/>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" s="74" t="s">
         <v>623</v>
       </c>
@@ -14735,7 +14738,7 @@
       <c r="H105" s="13"/>
       <c r="I105" s="13"/>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" s="74" t="s">
         <v>621</v>
       </c>
@@ -14750,7 +14753,7 @@
       <c r="H106" s="13"/>
       <c r="I106" s="13"/>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" s="74" t="s">
         <v>620</v>
       </c>
@@ -14765,7 +14768,7 @@
       <c r="H107" s="13"/>
       <c r="I107" s="13"/>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" s="74" t="s">
         <v>597</v>
       </c>
@@ -14780,7 +14783,7 @@
       <c r="H108" s="13"/>
       <c r="I108" s="13"/>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" s="74" t="s">
         <v>480</v>
       </c>
@@ -14797,7 +14800,7 @@
       <c r="H109" s="13"/>
       <c r="I109" s="13"/>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" s="74" t="s">
         <v>619</v>
       </c>
@@ -14812,7 +14815,7 @@
       <c r="H110" s="13"/>
       <c r="I110" s="13"/>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" s="74" t="s">
         <v>618</v>
       </c>
@@ -14827,7 +14830,7 @@
       <c r="H111" s="13"/>
       <c r="I111" s="13"/>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" s="74" t="s">
         <v>616</v>
       </c>
